--- a/contribs_boolean.xlsx
+++ b/contribs_boolean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\xMeta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6845A0-6466-46AD-975B-6E83D7992D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A932F2-ED65-41B9-9688-3E4947948B3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="1000">
   <si>
     <t>doi</t>
   </si>
@@ -461,6 +461,9 @@
     <t>Kelly</t>
   </si>
   <si>
+    <t>University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>grahamallen</t>
   </si>
   <si>
@@ -497,6 +500,9 @@
     <t>Ahern</t>
   </si>
   <si>
+    <t>School of Pharmacy, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>sineadbannon</t>
   </si>
   <si>
@@ -506,6 +512,9 @@
     <t>Bannon</t>
   </si>
   <si>
+    <t>School of Food &amp; Nutritional Sciences, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>anneblavette</t>
   </si>
   <si>
@@ -515,6 +524,9 @@
     <t>Blavette</t>
   </si>
   <si>
+    <t>Hydraulics and Maritime Research Centre, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>aimiebrennan</t>
   </si>
   <si>
@@ -524,6 +536,9 @@
     <t>Brennan</t>
   </si>
   <si>
+    <t>School of Sociology and Philosophy, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>fionabroughton</t>
   </si>
   <si>
@@ -533,6 +548,9 @@
     <t>Broughton</t>
   </si>
   <si>
+    <t>Department &amp; Faculty of Law, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>brendancahill</t>
   </si>
   <si>
@@ -551,6 +569,9 @@
     <t>Chen</t>
   </si>
   <si>
+    <t>Tyndall National Institute and Department of Electrical &amp; Electronic Engineering, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>meghancoakley</t>
   </si>
   <si>
@@ -560,6 +581,9 @@
     <t>Coakley</t>
   </si>
   <si>
+    <t>Department of Biochemistry, Biosciences Institute, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>donnchacuttriss</t>
   </si>
   <si>
@@ -569,6 +593,9 @@
     <t>Cuttriss</t>
   </si>
   <si>
+    <t>Study of Religions Department, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>johndanaher</t>
   </si>
   <si>
@@ -578,6 +605,9 @@
     <t>Danaher</t>
   </si>
   <si>
+    <t>College of Business and Law, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>caitrionadepaor</t>
   </si>
   <si>
@@ -587,9 +617,15 @@
     <t>de Paor</t>
   </si>
   <si>
+    <t>Department of Civil and Environmental Engineering, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>annemariedevlin</t>
   </si>
   <si>
+    <t>School of Languages, Literature and Cultures, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>gavindillon</t>
   </si>
   <si>
@@ -599,6 +635,9 @@
     <t>Dillon</t>
   </si>
   <si>
+    <t>Roinn na Sean- ⁊ na Meán-Ghaeilge, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>thomasfogarty</t>
   </si>
   <si>
@@ -608,9 +647,15 @@
     <t>Fogarty</t>
   </si>
   <si>
+    <t>Ultracold Quantum Gases Group, Physics Department, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>franclinsfoping</t>
   </si>
   <si>
+    <t>Cork Constraint Computation Centre, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>niamhgoulding</t>
   </si>
   <si>
@@ -620,6 +665,9 @@
     <t>Goulding</t>
   </si>
   <si>
+    <t>Department of Physiology, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>brianhealy</t>
   </si>
   <si>
@@ -629,6 +677,9 @@
     <t>Healy</t>
   </si>
   <si>
+    <t>Department of Microbiology, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>syedimran</t>
   </si>
   <si>
@@ -647,9 +698,15 @@
     <t>Landers</t>
   </si>
   <si>
+    <t>School of Nursing and Midwifery, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>farhanmanzoorahmedkhan</t>
   </si>
   <si>
+    <t>School of Science, Engineering and Food Science – Department of Civil and Environmental Engineering, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>bridiemccarthy</t>
   </si>
   <si>
@@ -668,6 +725,9 @@
     <t>McEndoo</t>
   </si>
   <si>
+    <t>Physics Department, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>sheenamchugh</t>
   </si>
   <si>
@@ -677,6 +737,9 @@
     <t>Mc Hugh</t>
   </si>
   <si>
+    <t>Department of Epidemiology &amp; Public Health, School of Medicine, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>lekhamenonmargassery</t>
   </si>
   <si>
@@ -686,6 +749,9 @@
     <t>Menon Margassery</t>
   </si>
   <si>
+    <t>Marine Biotechnology Centre, Environmental Research Institute, Department of Microbiology, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>tadhgmorgan</t>
   </si>
   <si>
@@ -695,6 +761,9 @@
     <t>Morgan</t>
   </si>
   <si>
+    <t>Department of Physics, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>richardmorrisroe</t>
   </si>
   <si>
@@ -704,18 +773,27 @@
     <t>Morrisroe</t>
   </si>
   <si>
+    <t>School of Applied Psychology, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>colmmurphy</t>
   </si>
   <si>
     <t>Colm</t>
   </si>
   <si>
+    <t>Department of Civil &amp; Environmental Engineering, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>marionmurphy</t>
   </si>
   <si>
     <t>Marion</t>
   </si>
   <si>
+    <t>Department of General Practice &amp; School of Pharmacy, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>mairinomahony</t>
   </si>
   <si>
@@ -737,6 +815,9 @@
     <t>O’Sullivan</t>
   </si>
   <si>
+    <t>Department of Sociology, School of Sociology and Philosophy, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>emiliepeneau</t>
   </si>
   <si>
@@ -746,6 +827,9 @@
     <t>Péneau</t>
   </si>
   <si>
+    <t>School of English, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>janepower</t>
   </si>
   <si>
@@ -755,12 +839,18 @@
     <t>Power</t>
   </si>
   <si>
+    <t>College of Business and Law - Department of Economics, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>patriciamradley</t>
   </si>
   <si>
     <t>Patricia</t>
   </si>
   <si>
+    <t>PhD Student, Early Childhood Studies, School of Education, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>paulstack</t>
   </si>
   <si>
@@ -770,6 +860,9 @@
     <t>Stack</t>
   </si>
   <si>
+    <t>IRUSE Cork, Department of Civil &amp; Environmental Engineering, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>sallyanntreharne</t>
   </si>
   <si>
@@ -779,6 +872,9 @@
     <t>Treharne</t>
   </si>
   <si>
+    <t>School of History, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>hangyin</t>
   </si>
   <si>
@@ -788,6 +884,9 @@
     <t>Yin</t>
   </si>
   <si>
+    <t>Dept. of Civil and Environmental Engineering, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>ruthramsay</t>
   </si>
   <si>
@@ -806,9 +905,15 @@
     <t>Aspell</t>
   </si>
   <si>
+    <t>Food Business and Development, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>annamariebrennan</t>
   </si>
   <si>
+    <t>Department and Faculty of Law, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>jamesbrowne</t>
   </si>
   <si>
@@ -818,6 +923,9 @@
     <t>Browne</t>
   </si>
   <si>
+    <t>School of Engineering, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>jennybutler</t>
   </si>
   <si>
@@ -827,12 +935,18 @@
     <t>Butler</t>
   </si>
   <si>
+    <t>Department of Folklore and Ethnology, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>kevincahill</t>
   </si>
   <si>
     <t>Kevin</t>
   </si>
   <si>
+    <t>School of Education, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>nicolacornally</t>
   </si>
   <si>
@@ -842,6 +956,9 @@
     <t>Cornally</t>
   </si>
   <si>
+    <t>Catherine McAuley School of Nursing and Midwifery, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>dugcubie</t>
   </si>
   <si>
@@ -851,6 +968,9 @@
     <t>Cubie</t>
   </si>
   <si>
+    <t>Faculty of Law, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>aileencudmore</t>
   </si>
   <si>
@@ -860,6 +980,9 @@
     <t>Cudmore</t>
   </si>
   <si>
+    <t>School of Biological, Earth and Environmental Sciences, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>noirincurran</t>
   </si>
   <si>
@@ -887,6 +1010,9 @@
     <t>Dey</t>
   </si>
   <si>
+    <t>Tyndall National Institute, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>dawnfarrell</t>
   </si>
   <si>
@@ -917,6 +1043,9 @@
     <t>carinaevoragomes</t>
   </si>
   <si>
+    <t>Department of Process and Chemical Engineering, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>grainnegreehy</t>
   </si>
   <si>
@@ -926,6 +1055,9 @@
     <t>Greehy</t>
   </si>
   <si>
+    <t>Department of Food Business and Development, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>irenehartigan</t>
   </si>
   <si>
@@ -953,6 +1085,9 @@
     <t>Hoysted</t>
   </si>
   <si>
+    <t>Department of History of Art, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>maryjoyce</t>
   </si>
   <si>
@@ -971,6 +1106,9 @@
     <t>Keyes</t>
   </si>
   <si>
+    <t>School of Food and Nutritional Sciences, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>geraldinekidd</t>
   </si>
   <si>
@@ -980,6 +1118,9 @@
     <t>Kidd</t>
   </si>
   <si>
+    <t>Department of History, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>jacquelinelyons</t>
   </si>
   <si>
@@ -995,6 +1136,9 @@
     <t>Magee</t>
   </si>
   <si>
+    <t>Department of Archaeology, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>angelamazza</t>
   </si>
   <si>
@@ -1004,6 +1148,9 @@
     <t>Mazza</t>
   </si>
   <si>
+    <t>Department of French Language and Cultural Studies, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>annemcauliffe</t>
   </si>
   <si>
@@ -1022,6 +1169,9 @@
     <t>colmmcauliffe</t>
   </si>
   <si>
+    <t>Department of English, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>alanjmnoonan</t>
   </si>
   <si>
@@ -1043,6 +1193,9 @@
     <t>Mc Sweeney</t>
   </si>
   <si>
+    <t>Department of Government, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>colmcorneliusmurphy</t>
   </si>
   <si>
@@ -1061,6 +1214,9 @@
     <t>Brid</t>
   </si>
   <si>
+    <t>School of Nursing &amp; Midwifery, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>oliverohanlon</t>
   </si>
   <si>
@@ -1070,12 +1226,18 @@
     <t>O’Hanlon</t>
   </si>
   <si>
+    <t>Department of French, School of Languages, Literatures and Cultures, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>niamhomahony</t>
   </si>
   <si>
     <t>rolahamedabuzeidoneill</t>
   </si>
   <si>
+    <t>Department of Sociology, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>lisaquigley</t>
   </si>
   <si>
@@ -1109,9 +1271,15 @@
     <t>Ryan</t>
   </si>
   <si>
+    <t>School of Mathematical Sciences, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>sivalingasasankavelivelli</t>
   </si>
   <si>
+    <t>School of Biological, Earth &amp; Environmental Sciences, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>amywatkins</t>
   </si>
   <si>
@@ -1121,6 +1289,9 @@
     <t>Watkins</t>
   </si>
   <si>
+    <t>Physics Department &amp; Tyndall National Institute, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>gordondalton</t>
   </si>
   <si>
@@ -1151,6 +1322,9 @@
     <t>briancahill</t>
   </si>
   <si>
+    <t>Informatics Research Unit for Sustainable Engineering (IRUSE), School of Engineering, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>francesclerkin</t>
   </si>
   <si>
@@ -1181,6 +1355,9 @@
     <t>Fouhy</t>
   </si>
   <si>
+    <t>Teagasc Food Research Centre, Moorepark and Department of Microbiology, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>marygalvin</t>
   </si>
   <si>
@@ -1205,6 +1382,9 @@
     <t>Hegarty</t>
   </si>
   <si>
+    <t>Department of Anatomy and Neuroscience, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>aoifehorgan</t>
   </si>
   <si>
@@ -1214,12 +1394,18 @@
     <t>Horgan</t>
   </si>
   <si>
+    <t>School of Applied Social Studies, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>helenestherluettgen</t>
   </si>
   <si>
     <t>Helen</t>
   </si>
   <si>
+    <t>Renaissance Studies, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>jennifermanning</t>
   </si>
   <si>
@@ -1244,6 +1430,9 @@
     <t>Philip</t>
   </si>
   <si>
+    <t>Department of Electrical &amp; Electronic Engineering, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>alanjamesmarsh</t>
   </si>
   <si>
@@ -1265,12 +1454,18 @@
     <t>sineadmariaoneill</t>
   </si>
   <si>
+    <t>Department of Epidemiology &amp; Public Health/ Department of Obstetrics &amp; Gynaecology, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>johnodonoghue</t>
   </si>
   <si>
     <t>O’Donoghue</t>
   </si>
   <si>
+    <t>Department of Chemistry, Analytical and Biological Chemistry Research Facility, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>jamesosullivan</t>
   </si>
   <si>
@@ -1292,6 +1487,9 @@
     <t>Serra Porteiro</t>
   </si>
   <si>
+    <t>Department of Hispanic Studies, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>flickasmall</t>
   </si>
   <si>
@@ -1337,24 +1535,39 @@
     <t>Crotty</t>
   </si>
   <si>
+    <t>Department of Medicine, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>niamhdenihan</t>
   </si>
   <si>
     <t>Denihan</t>
   </si>
   <si>
+    <t>Department of Paediatrics and Child Health, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>philipdonnellan</t>
   </si>
   <si>
     <t>Donnellan</t>
   </si>
   <si>
+    <t>Process and Chemical Engineering, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>seanavidafarrington</t>
   </si>
   <si>
+    <t>Department of Art History in the Digital Arts &amp; Humanities Programme, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>angelavflynn</t>
   </si>
   <si>
+    <t>The Department of Sociology and The School of Applied Social Studies (GREP Social Sciences), University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>anushkagangnaik</t>
   </si>
   <si>
@@ -1364,6 +1577,9 @@
     <t>Gangnaik</t>
   </si>
   <si>
+    <t>Chemistry Department, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>ciaraharty</t>
   </si>
   <si>
@@ -1382,6 +1598,9 @@
     <t>Jiang</t>
   </si>
   <si>
+    <t>School of Engineering - Electrical &amp; Electronic Engineering, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>ninakonstantinidou</t>
   </si>
   <si>
@@ -1406,6 +1625,9 @@
     <t>Lisiecka</t>
   </si>
   <si>
+    <t>Department of Speech &amp; Hearing Sciences, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>susanlyons</t>
   </si>
   <si>
@@ -1415,6 +1637,9 @@
     <t>grahammcauliffe</t>
   </si>
   <si>
+    <t>Department of Geography, School of the Human Environment, and School of Biological, Earth and Environmental Sciences, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>alanmccarthy</t>
   </si>
   <si>
@@ -1424,6 +1649,9 @@
     <t>Karen</t>
   </si>
   <si>
+    <t>Department of Microbiology &amp; Alimentary Pharmabiotic Centre, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>karenmoloney</t>
   </si>
   <si>
@@ -1478,9 +1706,15 @@
     <t>O’Connor</t>
   </si>
   <si>
+    <t>Electrical Engineering, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>elaineodriscolladam</t>
   </si>
   <si>
+    <t>Department of Geography, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>rosemaryokeeffe</t>
   </si>
   <si>
@@ -1490,9 +1724,15 @@
     <t>O’Keeffe</t>
   </si>
   <si>
+    <t>Electrical and Electronic Engineering, School of Engineering, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>lindamarieokeeffe</t>
   </si>
   <si>
+    <t>Department of Epidemiology and Public Health, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>karenoleary</t>
   </si>
   <si>
@@ -1508,6 +1748,9 @@
     <t>Payne</t>
   </si>
   <si>
+    <t>Law Department, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>nevinpower</t>
   </si>
   <si>
@@ -1523,12 +1766,18 @@
     <t>Quinlan</t>
   </si>
   <si>
+    <t>Mobile and Internet Systems Laboratory, Department of Computer Science, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>eileenrussell</t>
   </si>
   <si>
     <t>Eileen</t>
   </si>
   <si>
+    <t>Department of Biochemistry, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>shaunascanlon</t>
   </si>
   <si>
@@ -1538,6 +1787,9 @@
     <t>Scanlon</t>
   </si>
   <si>
+    <t>Tyndall National Institute and the Department of Chemistry, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>richardscriven</t>
   </si>
   <si>
@@ -1553,6 +1805,9 @@
     <t>Shanley</t>
   </si>
   <si>
+    <t>Civil and Environmental Engineering, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>stevewarren</t>
   </si>
   <si>
@@ -1580,6 +1835,9 @@
     <t>Ahmed</t>
   </si>
   <si>
+    <t>Dept. of Electrical and Electronics Engineering,, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>evinallen</t>
   </si>
   <si>
@@ -1589,9 +1847,15 @@
     <t>wejdanmalsadi</t>
   </si>
   <si>
+    <t>School of Languages, Literatures and Cultures, Applied Linguistics Programme, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>hazzaanaifalshareef</t>
   </si>
   <si>
+    <t>Department of Computer Science, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>joveriabaig</t>
   </si>
   <si>
@@ -1601,6 +1865,9 @@
     <t>Baig</t>
   </si>
   <si>
+    <t>Department of Electrical and Electronics Engineering, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>margaretbuckley</t>
   </si>
   <si>
@@ -1610,9 +1877,15 @@
     <t>sharonlouisecadogan</t>
   </si>
   <si>
+    <t>Department of Epidemiology &amp; Public Health, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>paulanthonycahill</t>
   </si>
   <si>
+    <t>School of Engineering – Civil &amp; Environmental Engineering., University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>rudicapra</t>
   </si>
   <si>
@@ -1622,6 +1895,9 @@
     <t>Capra</t>
   </si>
   <si>
+    <t>Department of Philosophy, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>yenchiwu</t>
   </si>
   <si>
@@ -1652,6 +1928,9 @@
     <t>Goff</t>
   </si>
   <si>
+    <t>School of English–Film Studies, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>hpierrehsieh</t>
   </si>
   <si>
@@ -1682,6 +1961,9 @@
     <t>Keogh</t>
   </si>
   <si>
+    <t>Department of Sociology &amp; Philosophy, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>alisonelizabethkillilea</t>
   </si>
   <si>
@@ -1694,12 +1976,18 @@
     <t>Magliacane</t>
   </si>
   <si>
+    <t>Department of French, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>zamzalizaabdulmulud</t>
   </si>
   <si>
     <t>fionaedwardsmurphy</t>
   </si>
   <si>
+    <t>Electrical and Electronic Engineering (EEE), School of Biological, Earth and Environmental Sciences (BEES), and Environmental Research Institute (ERI), University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>lisamurphy</t>
   </si>
   <si>
@@ -1718,6 +2006,9 @@
     <t>marygobrien</t>
   </si>
   <si>
+    <t>Department of Music, Sunday’s Well., University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>eoinocallaghan</t>
   </si>
   <si>
@@ -1730,6 +2021,9 @@
     <t>patriciaoconnor</t>
   </si>
   <si>
+    <t>Digital Arts and Humanities and the School of English, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>deirdreodonnell</t>
   </si>
   <si>
@@ -1739,6 +2033,9 @@
     <t>O’Donnell</t>
   </si>
   <si>
+    <t>Civil and Environmental Engineering, School of Engineering, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>meadhbhohalloran</t>
   </si>
   <si>
@@ -1763,6 +2060,9 @@
     <t>O’Reilly</t>
   </si>
   <si>
+    <t>Department of Law, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>janemaeveosullivan</t>
   </si>
   <si>
@@ -1778,12 +2078,18 @@
     <t>silvinojoseantunapresa</t>
   </si>
   <si>
+    <t>School of Electrical and Electronic Engineering and Tyndall National Institute, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>wissamabdelsamad</t>
   </si>
   <si>
     <t>marycatherinegallagher</t>
   </si>
   <si>
+    <t>School of Biological, Earth and Environmental Sciecnes, University College Cork, Ireland.</t>
+  </si>
+  <si>
     <t>sandervanlanen</t>
   </si>
   <si>
@@ -2552,51 +2858,51 @@
     <t>Peer review status</t>
   </si>
   <si>
+    <t>Anne Marie</t>
+  </si>
+  <si>
     <t>Devlin</t>
   </si>
   <si>
-    <t>Anne Marie</t>
+    <t>Franclin S.</t>
   </si>
   <si>
     <t>Foping</t>
   </si>
   <si>
-    <t>Franclin S.</t>
+    <t>Farhan Manzoor Ahmed</t>
   </si>
   <si>
     <t>Khan</t>
   </si>
   <si>
-    <t>Farhan Manzoor Ahmed</t>
+    <t>Dónal Óg</t>
   </si>
   <si>
     <t>O’Donovan</t>
   </si>
   <si>
-    <t>Dónal Óg</t>
+    <t>Patricia M.</t>
   </si>
   <si>
     <t>Radley</t>
   </si>
   <si>
-    <t>Patricia M.</t>
-  </si>
-  <si>
     <t>Anna Marie</t>
   </si>
   <si>
+    <t>Carina Évora</t>
+  </si>
+  <si>
     <t>Gomes</t>
   </si>
   <si>
-    <t>Carina Évora</t>
+    <t>Alan J. M.</t>
   </si>
   <si>
     <t>Noonan</t>
   </si>
   <si>
-    <t>Alan J. M.</t>
-  </si>
-  <si>
     <t>Colm Cornelius</t>
   </si>
   <si>
@@ -2609,93 +2915,99 @@
     <t>Zeid-O'Neill</t>
   </si>
   <si>
+    <t>Siva Linga Sasanka</t>
+  </si>
+  <si>
     <t>Velivelli</t>
   </si>
   <si>
-    <t>Siva Linga Sasanka</t>
+    <t>Helen Esther</t>
   </si>
   <si>
     <t>Luettgen</t>
   </si>
   <si>
-    <t>Helen Esther</t>
+    <t>Philip John</t>
   </si>
   <si>
     <t>Marraccini</t>
   </si>
   <si>
-    <t>Philip John</t>
+    <t>Alan James</t>
   </si>
   <si>
     <t>Marsh</t>
   </si>
   <si>
-    <t>Alan James</t>
+    <t xml:space="preserve">Sinéad Maria </t>
   </si>
   <si>
     <t>O'Neill</t>
   </si>
   <si>
-    <t xml:space="preserve">Sinéad Maria </t>
+    <t>Seana Vida</t>
   </si>
   <si>
     <t>Farrington</t>
   </si>
   <si>
-    <t>Seana Vida</t>
+    <t>Angela V.</t>
   </si>
   <si>
     <t>Flynn</t>
   </si>
   <si>
-    <t>Angela V.</t>
-  </si>
-  <si>
     <t>Ashling Rosanna</t>
   </si>
   <si>
+    <t>O'Driscoll-Adam</t>
+  </si>
+  <si>
     <t>Linda Marie</t>
   </si>
   <si>
+    <t>O'Leary</t>
+  </si>
+  <si>
+    <t>Wejdan M.</t>
+  </si>
+  <si>
     <t>Alsadi</t>
   </si>
   <si>
-    <t>Wejdan M.</t>
+    <t>Hazzaa Naif</t>
   </si>
   <si>
     <t>Alshareef</t>
   </si>
   <si>
-    <t>Hazzaa Naif</t>
+    <t>Sharon Louise</t>
   </si>
   <si>
     <t>Cadogan</t>
   </si>
   <si>
-    <t>Sharon Louise</t>
-  </si>
-  <si>
     <t>Paul Anthony</t>
   </si>
   <si>
+    <t>H. Pierre</t>
+  </si>
+  <si>
     <t>Hsieh</t>
   </si>
   <si>
-    <t>H. Pierre</t>
+    <t>Alison Elizabeth</t>
   </si>
   <si>
     <t>Killilea</t>
   </si>
   <si>
-    <t>Alison Elizabeth</t>
+    <t>Zamzaliza Abdul</t>
   </si>
   <si>
     <t>Mulud</t>
   </si>
   <si>
-    <t>Zamzaliza Abdul</t>
-  </si>
-  <si>
     <t>Fiona Edwards</t>
   </si>
   <si>
@@ -2714,37 +3026,28 @@
     <t>Jane Maeve</t>
   </si>
   <si>
+    <t>Lloyd Frank</t>
+  </si>
+  <si>
     <t>Philpott</t>
   </si>
   <si>
-    <t>Lloyd Frank</t>
+    <t>Silvino Jose</t>
   </si>
   <si>
     <t>Antuña Presa</t>
   </si>
   <si>
-    <t>Silvino Jose</t>
+    <t>Wissam Abdel</t>
   </si>
   <si>
     <t>Samad</t>
   </si>
   <si>
-    <t>Wissam Abdel</t>
+    <t xml:space="preserve">Mary Catherine </t>
   </si>
   <si>
     <t>Gallagher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mary Catherine </t>
-  </si>
-  <si>
-    <t>University College Cork</t>
-  </si>
-  <si>
-    <t>O'Leary</t>
-  </si>
-  <si>
-    <t>O'Driscoll-Adam</t>
   </si>
 </sst>
 </file>
@@ -2834,7 +3137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2875,6 +3178,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -12914,10 +13218,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Z744"/>
+  <dimension ref="A1:Z191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="C194" sqref="C194"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C195" sqref="C195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12959,3785 +13263,3109 @@
       <c r="A2" t="s">
         <v>134</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="D2"/>
       <c r="E2" t="s">
-        <v>896</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" t="s">
         <v>137</v>
       </c>
-      <c r="B3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3"/>
-    </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" t="s">
         <v>141</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="D4"/>
-      <c r="E4" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4"/>
-    </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>936</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>937</v>
+      </c>
+      <c r="E17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="E19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>938</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>939</v>
+      </c>
+      <c r="E20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="E24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>940</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>941</v>
+      </c>
+      <c r="E25" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="E27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="E28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>234</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="E30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>238</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="E31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>242</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="C32" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="B5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5"/>
-    </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6"/>
-      <c r="E6" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6"/>
-    </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E32" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>245</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>248</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="E34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>251</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>942</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>943</v>
+      </c>
+      <c r="E35" t="s">
         <v>150</v>
       </c>
-      <c r="C7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7"/>
-    </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8"/>
-      <c r="E8" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8"/>
-    </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D9"/>
-      <c r="E9" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9"/>
-    </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F10"/>
-      <c r="G10"/>
-    </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11"/>
-      <c r="E11" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" t="s">
-        <v>166</v>
-      </c>
-      <c r="D12"/>
-      <c r="E12" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F12"/>
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F13"/>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>170</v>
-      </c>
-      <c r="B14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D14"/>
-      <c r="E14" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F14"/>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15"/>
-      <c r="E15" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F15"/>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>176</v>
-      </c>
-      <c r="B16" t="s">
-        <v>177</v>
-      </c>
-      <c r="C16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F16"/>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>179</v>
-      </c>
-      <c r="B17" t="s">
-        <v>835</v>
-      </c>
-      <c r="C17" t="s">
-        <v>834</v>
-      </c>
-      <c r="D17"/>
-      <c r="E17" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F17"/>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>180</v>
-      </c>
-      <c r="B18" t="s">
-        <v>181</v>
-      </c>
-      <c r="C18" t="s">
-        <v>182</v>
-      </c>
-      <c r="D18"/>
-      <c r="E18" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F18"/>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B19" t="s">
-        <v>184</v>
-      </c>
-      <c r="C19" t="s">
-        <v>185</v>
-      </c>
-      <c r="D19"/>
-      <c r="E19" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F19"/>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B20" t="s">
-        <v>837</v>
-      </c>
-      <c r="C20" t="s">
-        <v>836</v>
-      </c>
-      <c r="D20"/>
-      <c r="E20" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F20"/>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>187</v>
-      </c>
-      <c r="B21" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" t="s">
-        <v>189</v>
-      </c>
-      <c r="D21"/>
-      <c r="E21" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F21"/>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>190</v>
-      </c>
-      <c r="B22" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D22"/>
-      <c r="E22" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F22"/>
-      <c r="G22"/>
-    </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>193</v>
-      </c>
-      <c r="B23" t="s">
-        <v>194</v>
-      </c>
-      <c r="C23" t="s">
-        <v>195</v>
-      </c>
-      <c r="D23"/>
-      <c r="E23" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F23"/>
-      <c r="G23"/>
-    </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>196</v>
-      </c>
-      <c r="B24" t="s">
-        <v>197</v>
-      </c>
-      <c r="C24" t="s">
-        <v>198</v>
-      </c>
-      <c r="D24"/>
-      <c r="E24" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F24"/>
-      <c r="G24"/>
-    </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>199</v>
-      </c>
-      <c r="B25" t="s">
-        <v>839</v>
-      </c>
-      <c r="C25" t="s">
-        <v>838</v>
-      </c>
-      <c r="D25"/>
-      <c r="E25" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F25"/>
-      <c r="G25"/>
-    </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>200</v>
-      </c>
-      <c r="B26" t="s">
-        <v>201</v>
-      </c>
-      <c r="C26" t="s">
-        <v>202</v>
-      </c>
-      <c r="D26"/>
-      <c r="E26" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F26"/>
-      <c r="G26"/>
-    </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>203</v>
-      </c>
-      <c r="B27" t="s">
-        <v>204</v>
-      </c>
-      <c r="C27" t="s">
-        <v>205</v>
-      </c>
-      <c r="D27"/>
-      <c r="E27" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F27"/>
-      <c r="G27"/>
-    </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>206</v>
-      </c>
-      <c r="B28" t="s">
-        <v>207</v>
-      </c>
-      <c r="C28" t="s">
-        <v>208</v>
-      </c>
-      <c r="D28"/>
-      <c r="E28" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F28"/>
-      <c r="G28"/>
-    </row>
-    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>209</v>
-      </c>
-      <c r="B29" t="s">
-        <v>210</v>
-      </c>
-      <c r="C29" t="s">
-        <v>211</v>
-      </c>
-      <c r="D29"/>
-      <c r="E29" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F29"/>
-      <c r="G29"/>
-    </row>
-    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>212</v>
-      </c>
-      <c r="B30" t="s">
-        <v>213</v>
-      </c>
-      <c r="C30" t="s">
-        <v>214</v>
-      </c>
-      <c r="D30"/>
-      <c r="E30" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F30"/>
-      <c r="G30"/>
-    </row>
-    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>215</v>
-      </c>
-      <c r="B31" t="s">
-        <v>216</v>
-      </c>
-      <c r="C31" t="s">
-        <v>217</v>
-      </c>
-      <c r="D31"/>
-      <c r="E31" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F31"/>
-      <c r="G31"/>
-    </row>
-    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>218</v>
-      </c>
-      <c r="B32" t="s">
-        <v>219</v>
-      </c>
-      <c r="C32" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32"/>
-      <c r="E32" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F32"/>
-      <c r="G32"/>
-    </row>
-    <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>220</v>
-      </c>
-      <c r="B33" t="s">
-        <v>221</v>
-      </c>
-      <c r="C33" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33"/>
-      <c r="E33" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F33"/>
-      <c r="G33"/>
-    </row>
-    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>222</v>
-      </c>
-      <c r="B34" t="s">
-        <v>223</v>
-      </c>
-      <c r="C34" t="s">
-        <v>224</v>
-      </c>
-      <c r="D34"/>
-      <c r="E34" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F34"/>
-      <c r="G34"/>
-    </row>
-    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>225</v>
-      </c>
-      <c r="B35" t="s">
-        <v>841</v>
-      </c>
-      <c r="C35" t="s">
-        <v>840</v>
-      </c>
-      <c r="D35"/>
-      <c r="E35" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F35"/>
-      <c r="G35"/>
-    </row>
-    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>226</v>
-      </c>
-      <c r="B36" t="s">
-        <v>227</v>
-      </c>
-      <c r="C36" t="s">
-        <v>362</v>
-      </c>
-      <c r="D36"/>
-      <c r="E36" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F36"/>
-      <c r="G36"/>
-    </row>
-    <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="E36" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>229</v>
-      </c>
-      <c r="B37" t="s">
-        <v>230</v>
-      </c>
-      <c r="C37" t="s">
-        <v>231</v>
-      </c>
-      <c r="D37"/>
-      <c r="E37" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F37"/>
-      <c r="G37"/>
-    </row>
-    <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="E37" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>232</v>
-      </c>
-      <c r="B38" t="s">
-        <v>233</v>
-      </c>
-      <c r="C38" t="s">
-        <v>234</v>
-      </c>
-      <c r="D38"/>
-      <c r="E38" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F38"/>
-      <c r="G38"/>
-    </row>
-    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="E38" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>235</v>
-      </c>
-      <c r="B39" t="s">
-        <v>843</v>
-      </c>
-      <c r="C39" t="s">
-        <v>842</v>
-      </c>
-      <c r="D39"/>
-      <c r="E39" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F39"/>
-      <c r="G39"/>
-    </row>
-    <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>264</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>944</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="E39" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>237</v>
-      </c>
-      <c r="B40" t="s">
-        <v>238</v>
-      </c>
-      <c r="C40" t="s">
-        <v>239</v>
-      </c>
-      <c r="D40"/>
-      <c r="E40" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F40"/>
-      <c r="G40"/>
-    </row>
-    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="E40" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>240</v>
-      </c>
-      <c r="B41" t="s">
-        <v>241</v>
-      </c>
-      <c r="C41" t="s">
-        <v>242</v>
-      </c>
-      <c r="D41"/>
-      <c r="E41" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F41"/>
-      <c r="G41"/>
-    </row>
-    <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="E41" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>243</v>
-      </c>
-      <c r="B42" t="s">
-        <v>244</v>
-      </c>
-      <c r="C42" t="s">
-        <v>245</v>
-      </c>
-      <c r="D42"/>
-      <c r="E42" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="F42"/>
-      <c r="G42"/>
-    </row>
-    <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="E42" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>246</v>
-      </c>
-      <c r="B43" t="s">
-        <v>247</v>
-      </c>
-      <c r="C43" t="s">
-        <v>248</v>
+        <v>279</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>281</v>
       </c>
       <c r="D43"/>
-      <c r="E43" s="17" t="s">
-        <v>896</v>
+      <c r="E43" t="s">
+        <v>137</v>
       </c>
       <c r="F43"/>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>249</v>
-      </c>
-      <c r="B44" t="s">
-        <v>250</v>
-      </c>
-      <c r="C44" t="s">
-        <v>251</v>
+        <v>282</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>284</v>
       </c>
       <c r="D44"/>
-      <c r="E44" s="17" t="s">
-        <v>896</v>
+      <c r="E44" t="s">
+        <v>285</v>
       </c>
       <c r="F44"/>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>252</v>
-      </c>
-      <c r="B45" t="s">
-        <v>844</v>
-      </c>
-      <c r="C45" t="s">
-        <v>157</v>
+        <v>286</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>946</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>161</v>
       </c>
       <c r="D45"/>
-      <c r="E45" s="17" t="s">
-        <v>896</v>
+      <c r="E45" t="s">
+        <v>287</v>
       </c>
       <c r="F45"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>253</v>
-      </c>
-      <c r="B46" t="s">
-        <v>254</v>
-      </c>
-      <c r="C46" t="s">
-        <v>255</v>
+        <v>288</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>290</v>
       </c>
       <c r="D46"/>
-      <c r="E46" s="17" t="s">
-        <v>896</v>
+      <c r="E46" t="s">
+        <v>291</v>
       </c>
       <c r="F46"/>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>256</v>
-      </c>
-      <c r="B47" t="s">
-        <v>257</v>
-      </c>
-      <c r="C47" t="s">
-        <v>258</v>
+        <v>292</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>294</v>
       </c>
       <c r="D47"/>
-      <c r="E47" s="17" t="s">
-        <v>896</v>
+      <c r="E47" t="s">
+        <v>295</v>
       </c>
       <c r="F47"/>
       <c r="G47"/>
     </row>
-    <row r="48" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>259</v>
-      </c>
-      <c r="B48" t="s">
-        <v>260</v>
-      </c>
-      <c r="C48" t="s">
-        <v>163</v>
+        <v>296</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>169</v>
       </c>
       <c r="D48"/>
-      <c r="E48" s="17" t="s">
-        <v>896</v>
+      <c r="E48" t="s">
+        <v>298</v>
       </c>
       <c r="F48"/>
       <c r="G48"/>
     </row>
-    <row r="49" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>261</v>
-      </c>
-      <c r="B49" t="s">
-        <v>262</v>
-      </c>
-      <c r="C49" t="s">
-        <v>263</v>
+        <v>299</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>301</v>
       </c>
       <c r="D49"/>
-      <c r="E49" s="17" t="s">
-        <v>896</v>
+      <c r="E49" t="s">
+        <v>302</v>
       </c>
       <c r="F49"/>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>264</v>
-      </c>
-      <c r="B50" t="s">
-        <v>265</v>
-      </c>
-      <c r="C50" t="s">
-        <v>266</v>
+        <v>303</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>305</v>
       </c>
       <c r="D50"/>
-      <c r="E50" s="17" t="s">
-        <v>896</v>
+      <c r="E50" t="s">
+        <v>306</v>
       </c>
       <c r="F50"/>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>267</v>
-      </c>
-      <c r="B51" t="s">
-        <v>268</v>
-      </c>
-      <c r="C51" t="s">
-        <v>269</v>
+        <v>307</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>309</v>
       </c>
       <c r="D51"/>
-      <c r="E51" s="17" t="s">
-        <v>896</v>
+      <c r="E51" t="s">
+        <v>310</v>
       </c>
       <c r="F51"/>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>270</v>
-      </c>
-      <c r="B52" t="s">
-        <v>271</v>
-      </c>
-      <c r="C52" t="s">
-        <v>272</v>
+        <v>311</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>313</v>
       </c>
       <c r="D52"/>
-      <c r="E52" s="17" t="s">
-        <v>896</v>
+      <c r="E52" t="s">
+        <v>241</v>
       </c>
       <c r="F52"/>
       <c r="G52"/>
     </row>
-    <row r="53" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>273</v>
-      </c>
-      <c r="B53" t="s">
-        <v>274</v>
-      </c>
-      <c r="C53" t="s">
-        <v>275</v>
+        <v>314</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>316</v>
       </c>
       <c r="D53"/>
-      <c r="E53" s="17" t="s">
-        <v>896</v>
+      <c r="E53" t="s">
+        <v>216</v>
       </c>
       <c r="F53"/>
       <c r="G53"/>
     </row>
-    <row r="54" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>276</v>
-      </c>
-      <c r="B54" t="s">
-        <v>277</v>
-      </c>
-      <c r="C54" t="s">
-        <v>278</v>
+        <v>317</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>319</v>
       </c>
       <c r="D54"/>
-      <c r="E54" s="17" t="s">
-        <v>896</v>
+      <c r="E54" t="s">
+        <v>320</v>
       </c>
       <c r="F54"/>
       <c r="G54"/>
     </row>
-    <row r="55" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>279</v>
-      </c>
-      <c r="B55" t="s">
-        <v>280</v>
-      </c>
-      <c r="C55" t="s">
-        <v>281</v>
+        <v>321</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>323</v>
       </c>
       <c r="D55"/>
-      <c r="E55" s="17" t="s">
-        <v>896</v>
+      <c r="E55" t="s">
+        <v>216</v>
       </c>
       <c r="F55"/>
       <c r="G55"/>
     </row>
-    <row r="56" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>282</v>
-      </c>
-      <c r="B56" t="s">
-        <v>283</v>
-      </c>
-      <c r="C56" t="s">
-        <v>284</v>
+        <v>324</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>326</v>
       </c>
       <c r="D56"/>
-      <c r="E56" s="17" t="s">
-        <v>896</v>
+      <c r="E56" t="s">
+        <v>274</v>
       </c>
       <c r="F56"/>
       <c r="G56"/>
     </row>
-    <row r="57" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>285</v>
-      </c>
-      <c r="B57" t="s">
-        <v>286</v>
-      </c>
-      <c r="C57" t="s">
-        <v>287</v>
+        <v>327</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>329</v>
       </c>
       <c r="D57"/>
-      <c r="E57" s="17" t="s">
-        <v>896</v>
+      <c r="E57" t="s">
+        <v>298</v>
       </c>
       <c r="F57"/>
       <c r="G57"/>
     </row>
-    <row r="58" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>288</v>
-      </c>
-      <c r="B58" t="s">
-        <v>846</v>
-      </c>
-      <c r="C58" t="s">
-        <v>845</v>
+        <v>330</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>947</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>948</v>
       </c>
       <c r="D58"/>
-      <c r="E58" s="17" t="s">
-        <v>896</v>
+      <c r="E58" t="s">
+        <v>331</v>
       </c>
       <c r="F58"/>
       <c r="G58"/>
     </row>
-    <row r="59" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>289</v>
-      </c>
-      <c r="B59" t="s">
-        <v>290</v>
-      </c>
-      <c r="C59" t="s">
-        <v>291</v>
+        <v>332</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>334</v>
       </c>
       <c r="D59"/>
-      <c r="E59" s="17" t="s">
-        <v>896</v>
+      <c r="E59" t="s">
+        <v>335</v>
       </c>
       <c r="F59"/>
       <c r="G59"/>
     </row>
-    <row r="60" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>292</v>
-      </c>
-      <c r="B60" t="s">
-        <v>293</v>
-      </c>
-      <c r="C60" t="s">
-        <v>294</v>
+        <v>336</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>338</v>
       </c>
       <c r="D60"/>
-      <c r="E60" s="17" t="s">
-        <v>896</v>
+      <c r="E60" t="s">
+        <v>216</v>
       </c>
       <c r="F60"/>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>295</v>
-      </c>
-      <c r="B61" t="s">
-        <v>296</v>
-      </c>
-      <c r="C61" t="s">
-        <v>297</v>
+        <v>339</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>341</v>
       </c>
       <c r="D61"/>
-      <c r="E61" s="17" t="s">
-        <v>896</v>
+      <c r="E61" t="s">
+        <v>259</v>
       </c>
       <c r="F61"/>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>298</v>
-      </c>
-      <c r="B62" t="s">
-        <v>299</v>
-      </c>
-      <c r="C62" t="s">
-        <v>300</v>
+        <v>342</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>344</v>
       </c>
       <c r="D62"/>
-      <c r="E62" s="17" t="s">
-        <v>896</v>
+      <c r="E62" t="s">
+        <v>345</v>
       </c>
       <c r="F62"/>
       <c r="G62"/>
     </row>
-    <row r="63" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>301</v>
-      </c>
-      <c r="B63" t="s">
-        <v>302</v>
-      </c>
-      <c r="C63" t="s">
-        <v>303</v>
+        <v>346</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>348</v>
       </c>
       <c r="D63"/>
-      <c r="E63" s="17" t="s">
-        <v>896</v>
+      <c r="E63" t="s">
+        <v>241</v>
       </c>
       <c r="F63"/>
       <c r="G63"/>
     </row>
-    <row r="64" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>304</v>
-      </c>
-      <c r="B64" t="s">
-        <v>305</v>
-      </c>
-      <c r="C64" t="s">
-        <v>306</v>
+        <v>349</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>351</v>
       </c>
       <c r="D64"/>
-      <c r="E64" s="17" t="s">
-        <v>896</v>
+      <c r="E64" t="s">
+        <v>352</v>
       </c>
       <c r="F64"/>
       <c r="G64"/>
     </row>
-    <row r="65" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>307</v>
-      </c>
-      <c r="B65" t="s">
-        <v>308</v>
-      </c>
-      <c r="C65" t="s">
-        <v>309</v>
+        <v>353</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>355</v>
       </c>
       <c r="D65"/>
-      <c r="E65" s="17" t="s">
-        <v>896</v>
+      <c r="E65" t="s">
+        <v>356</v>
       </c>
       <c r="F65"/>
       <c r="G65"/>
     </row>
-    <row r="66" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>310</v>
-      </c>
-      <c r="B66" t="s">
-        <v>283</v>
-      </c>
-      <c r="C66" t="s">
-        <v>311</v>
+        <v>357</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>358</v>
       </c>
       <c r="D66"/>
-      <c r="E66" s="17" t="s">
-        <v>896</v>
+      <c r="E66" t="s">
+        <v>352</v>
       </c>
       <c r="F66"/>
       <c r="G66"/>
     </row>
-    <row r="67" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>312</v>
-      </c>
-      <c r="B67" t="s">
-        <v>313</v>
-      </c>
-      <c r="C67" t="s">
-        <v>314</v>
+        <v>359</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>361</v>
       </c>
       <c r="D67"/>
-      <c r="E67" s="17" t="s">
-        <v>896</v>
+      <c r="E67" t="s">
+        <v>362</v>
       </c>
       <c r="F67"/>
       <c r="G67"/>
     </row>
-    <row r="68" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>315</v>
-      </c>
-      <c r="B68" t="s">
-        <v>316</v>
-      </c>
-      <c r="C68" t="s">
-        <v>317</v>
+        <v>363</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>365</v>
       </c>
       <c r="D68"/>
-      <c r="E68" s="17" t="s">
-        <v>896</v>
+      <c r="E68" t="s">
+        <v>366</v>
       </c>
       <c r="F68"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>318</v>
-      </c>
-      <c r="B69" t="s">
-        <v>153</v>
-      </c>
-      <c r="C69" t="s">
-        <v>319</v>
+        <v>367</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>368</v>
       </c>
       <c r="D69"/>
-      <c r="E69" s="17" t="s">
-        <v>896</v>
+      <c r="E69" t="s">
+        <v>216</v>
       </c>
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>320</v>
-      </c>
-      <c r="B70" t="s">
-        <v>321</v>
-      </c>
-      <c r="C70" t="s">
-        <v>322</v>
+        <v>369</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>371</v>
       </c>
       <c r="D70"/>
-      <c r="E70" s="17" t="s">
-        <v>896</v>
+      <c r="E70" t="s">
+        <v>310</v>
       </c>
       <c r="F70"/>
       <c r="G70"/>
     </row>
-    <row r="71" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>323</v>
-      </c>
-      <c r="B71" t="s">
-        <v>219</v>
-      </c>
-      <c r="C71" t="s">
-        <v>319</v>
+        <v>372</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>368</v>
       </c>
       <c r="D71"/>
-      <c r="E71" s="17" t="s">
-        <v>896</v>
+      <c r="E71" t="s">
+        <v>373</v>
       </c>
       <c r="F71"/>
       <c r="G71"/>
     </row>
-    <row r="72" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>324</v>
-      </c>
-      <c r="B72" t="s">
-        <v>848</v>
-      </c>
-      <c r="C72" t="s">
-        <v>847</v>
+        <v>374</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>949</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>950</v>
       </c>
       <c r="D72"/>
-      <c r="E72" s="17" t="s">
-        <v>896</v>
+      <c r="E72" t="s">
+        <v>274</v>
       </c>
       <c r="F72"/>
       <c r="G72"/>
     </row>
-    <row r="73" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>325</v>
-      </c>
-      <c r="B73" t="s">
-        <v>326</v>
-      </c>
-      <c r="C73" t="s">
-        <v>327</v>
+        <v>375</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>377</v>
       </c>
       <c r="D73"/>
-      <c r="E73" s="17" t="s">
-        <v>896</v>
+      <c r="E73" t="s">
+        <v>274</v>
       </c>
       <c r="F73"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>328</v>
-      </c>
-      <c r="B74" t="s">
-        <v>329</v>
-      </c>
-      <c r="C74" t="s">
-        <v>330</v>
+        <v>378</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>380</v>
       </c>
       <c r="D74"/>
-      <c r="E74" s="17" t="s">
-        <v>896</v>
+      <c r="E74" t="s">
+        <v>381</v>
       </c>
       <c r="F74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>331</v>
-      </c>
-      <c r="B75" t="s">
-        <v>849</v>
-      </c>
-      <c r="C75" t="s">
-        <v>142</v>
+        <v>382</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>951</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>143</v>
       </c>
       <c r="D75"/>
-      <c r="E75" s="17" t="s">
-        <v>896</v>
+      <c r="E75" t="s">
+        <v>189</v>
       </c>
       <c r="F75"/>
       <c r="G75"/>
     </row>
-    <row r="76" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>332</v>
-      </c>
-      <c r="B76" t="s">
-        <v>333</v>
-      </c>
-      <c r="C76" t="s">
-        <v>334</v>
+        <v>383</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>385</v>
       </c>
       <c r="D76"/>
-      <c r="E76" s="17" t="s">
-        <v>896</v>
+      <c r="E76" t="s">
+        <v>244</v>
       </c>
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>335</v>
-      </c>
-      <c r="B77" t="s">
-        <v>336</v>
-      </c>
-      <c r="C77" t="s">
-        <v>850</v>
+        <v>386</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>952</v>
       </c>
       <c r="D77"/>
-      <c r="E77" s="17" t="s">
-        <v>896</v>
+      <c r="E77" t="s">
+        <v>388</v>
       </c>
       <c r="F77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>337</v>
-      </c>
-      <c r="B78" t="s">
-        <v>338</v>
-      </c>
-      <c r="C78" t="s">
-        <v>339</v>
+        <v>389</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>391</v>
       </c>
       <c r="D78"/>
-      <c r="E78" s="17" t="s">
-        <v>896</v>
+      <c r="E78" t="s">
+        <v>392</v>
       </c>
       <c r="F78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>340</v>
-      </c>
-      <c r="B79" t="s">
-        <v>188</v>
-      </c>
-      <c r="C79" t="s">
-        <v>224</v>
+        <v>393</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>250</v>
       </c>
       <c r="D79"/>
-      <c r="E79" s="17" t="s">
-        <v>896</v>
+      <c r="E79" t="s">
+        <v>259</v>
       </c>
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>341</v>
-      </c>
-      <c r="B80" t="s">
-        <v>851</v>
-      </c>
-      <c r="C80" t="s">
-        <v>852</v>
+        <v>394</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>953</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>954</v>
       </c>
       <c r="D80"/>
-      <c r="E80" s="17" t="s">
-        <v>896</v>
+      <c r="E80" t="s">
+        <v>395</v>
       </c>
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>342</v>
-      </c>
-      <c r="B81" t="s">
-        <v>343</v>
-      </c>
-      <c r="C81" t="s">
-        <v>344</v>
+        <v>396</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>398</v>
       </c>
       <c r="D81"/>
-      <c r="E81" s="17" t="s">
-        <v>896</v>
+      <c r="E81" t="s">
+        <v>209</v>
       </c>
       <c r="F81"/>
       <c r="G81"/>
     </row>
-    <row r="82" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>345</v>
-      </c>
-      <c r="B82" t="s">
-        <v>346</v>
-      </c>
-      <c r="C82" t="s">
-        <v>347</v>
+        <v>399</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>401</v>
       </c>
       <c r="D82"/>
-      <c r="E82" s="17" t="s">
-        <v>896</v>
+      <c r="E82" t="s">
+        <v>291</v>
       </c>
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>348</v>
-      </c>
-      <c r="B83" t="s">
-        <v>305</v>
-      </c>
-      <c r="C83" t="s">
-        <v>349</v>
+        <v>402</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>403</v>
       </c>
       <c r="D83"/>
-      <c r="E83" s="17" t="s">
-        <v>896</v>
+      <c r="E83" t="s">
+        <v>225</v>
       </c>
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>350</v>
-      </c>
-      <c r="B84" t="s">
-        <v>351</v>
-      </c>
-      <c r="C84" t="s">
-        <v>352</v>
+        <v>404</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>406</v>
       </c>
       <c r="D84"/>
-      <c r="E84" s="17" t="s">
-        <v>896</v>
+      <c r="E84" t="s">
+        <v>407</v>
       </c>
       <c r="F84"/>
       <c r="G84"/>
     </row>
-    <row r="85" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>353</v>
-      </c>
-      <c r="B85" t="s">
-        <v>854</v>
-      </c>
-      <c r="C85" t="s">
-        <v>853</v>
+        <v>408</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>955</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>956</v>
       </c>
       <c r="D85"/>
-      <c r="E85" s="17" t="s">
-        <v>896</v>
+      <c r="E85" t="s">
+        <v>409</v>
       </c>
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>354</v>
-      </c>
-      <c r="B86" t="s">
-        <v>355</v>
-      </c>
-      <c r="C86" t="s">
-        <v>356</v>
+        <v>410</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>412</v>
       </c>
       <c r="D86"/>
-      <c r="E86" s="17" t="s">
-        <v>896</v>
+      <c r="E86" t="s">
+        <v>413</v>
       </c>
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>357</v>
-      </c>
-      <c r="B87" t="s">
-        <v>358</v>
-      </c>
-      <c r="C87" t="s">
-        <v>359</v>
+        <v>414</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>416</v>
       </c>
       <c r="D87"/>
-      <c r="E87" s="17" t="s">
-        <v>896</v>
+      <c r="E87" t="s">
+        <v>137</v>
       </c>
       <c r="F87"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>360</v>
-      </c>
-      <c r="B88" t="s">
-        <v>361</v>
-      </c>
-      <c r="C88" t="s">
-        <v>362</v>
+        <v>417</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>419</v>
       </c>
       <c r="D88"/>
-      <c r="E88" s="17" t="s">
-        <v>896</v>
+      <c r="E88" t="s">
+        <v>137</v>
       </c>
       <c r="F88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>363</v>
-      </c>
-      <c r="B89" t="s">
-        <v>364</v>
-      </c>
-      <c r="C89" t="s">
-        <v>365</v>
+        <v>420</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>422</v>
       </c>
       <c r="D89"/>
-      <c r="E89" s="17" t="s">
-        <v>896</v>
+      <c r="E89" t="s">
+        <v>137</v>
       </c>
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>366</v>
-      </c>
-      <c r="B90" t="s">
-        <v>191</v>
-      </c>
-      <c r="C90" t="s">
-        <v>163</v>
+        <v>423</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>169</v>
       </c>
       <c r="D90"/>
-      <c r="E90" s="17" t="s">
-        <v>896</v>
+      <c r="E90" t="s">
+        <v>424</v>
       </c>
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>367</v>
-      </c>
-      <c r="B91" t="s">
-        <v>368</v>
-      </c>
-      <c r="C91" t="s">
-        <v>369</v>
+        <v>425</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>427</v>
       </c>
       <c r="D91"/>
-      <c r="E91" s="17" t="s">
-        <v>896</v>
+      <c r="E91" t="s">
+        <v>298</v>
       </c>
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>370</v>
-      </c>
-      <c r="B92" t="s">
-        <v>371</v>
-      </c>
-      <c r="C92" t="s">
-        <v>372</v>
+        <v>428</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>430</v>
       </c>
       <c r="D92"/>
-      <c r="E92" s="17" t="s">
-        <v>896</v>
+      <c r="E92" t="s">
+        <v>259</v>
       </c>
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>373</v>
-      </c>
-      <c r="B93" t="s">
-        <v>302</v>
-      </c>
-      <c r="C93" t="s">
-        <v>374</v>
+        <v>431</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>432</v>
       </c>
       <c r="D93"/>
-      <c r="E93" s="17" t="s">
-        <v>896</v>
+      <c r="E93" t="s">
+        <v>216</v>
       </c>
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>375</v>
-      </c>
-      <c r="B94" t="s">
-        <v>159</v>
-      </c>
-      <c r="C94" t="s">
-        <v>376</v>
+        <v>433</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="D94"/>
-      <c r="E94" s="17" t="s">
-        <v>896</v>
+      <c r="E94" t="s">
+        <v>435</v>
       </c>
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>377</v>
-      </c>
-      <c r="B95" t="s">
-        <v>302</v>
-      </c>
-      <c r="C95" t="s">
-        <v>378</v>
+        <v>436</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>437</v>
       </c>
       <c r="D95"/>
-      <c r="E95" s="17" t="s">
-        <v>896</v>
+      <c r="E95" t="s">
+        <v>241</v>
       </c>
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>379</v>
-      </c>
-      <c r="B96" t="s">
-        <v>380</v>
-      </c>
-      <c r="C96" t="s">
-        <v>381</v>
+        <v>438</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>440</v>
       </c>
       <c r="D96"/>
-      <c r="E96" s="17" t="s">
-        <v>896</v>
+      <c r="E96" t="s">
+        <v>259</v>
       </c>
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>382</v>
-      </c>
-      <c r="B97" t="s">
-        <v>383</v>
-      </c>
-      <c r="C97" t="s">
-        <v>384</v>
+        <v>441</v>
+      </c>
+      <c r="B97" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>443</v>
       </c>
       <c r="D97"/>
-      <c r="E97" s="17" t="s">
-        <v>896</v>
+      <c r="E97" t="s">
+        <v>444</v>
       </c>
       <c r="F97"/>
       <c r="G97"/>
     </row>
-    <row r="98" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>385</v>
-      </c>
-      <c r="B98" t="s">
-        <v>386</v>
-      </c>
-      <c r="C98" t="s">
-        <v>387</v>
+        <v>445</v>
+      </c>
+      <c r="B98" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>447</v>
       </c>
       <c r="D98"/>
-      <c r="E98" s="17" t="s">
-        <v>896</v>
+      <c r="E98" t="s">
+        <v>448</v>
       </c>
       <c r="F98"/>
       <c r="G98"/>
     </row>
-    <row r="99" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>388</v>
-      </c>
-      <c r="B99" t="s">
-        <v>856</v>
-      </c>
-      <c r="C99" t="s">
-        <v>855</v>
+        <v>449</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>957</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>958</v>
       </c>
       <c r="D99"/>
-      <c r="E99" s="17" t="s">
-        <v>896</v>
+      <c r="E99" t="s">
+        <v>451</v>
       </c>
       <c r="F99"/>
       <c r="G99"/>
     </row>
-    <row r="100" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>390</v>
-      </c>
-      <c r="B100" t="s">
-        <v>391</v>
-      </c>
-      <c r="C100" t="s">
-        <v>392</v>
+        <v>452</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>454</v>
       </c>
       <c r="D100"/>
-      <c r="E100" s="17" t="s">
-        <v>896</v>
+      <c r="E100" t="s">
+        <v>205</v>
       </c>
       <c r="F100"/>
       <c r="G100"/>
     </row>
-    <row r="101" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>393</v>
-      </c>
-      <c r="B101" t="s">
-        <v>394</v>
-      </c>
-      <c r="C101" t="s">
-        <v>395</v>
+        <v>455</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>457</v>
       </c>
       <c r="D101"/>
-      <c r="E101" s="17" t="s">
-        <v>896</v>
+      <c r="E101" t="s">
+        <v>259</v>
       </c>
       <c r="F101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>396</v>
-      </c>
-      <c r="B102" t="s">
-        <v>858</v>
-      </c>
-      <c r="C102" t="s">
-        <v>857</v>
+        <v>458</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>959</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>960</v>
       </c>
       <c r="D102"/>
-      <c r="E102" s="17" t="s">
-        <v>896</v>
+      <c r="E102" t="s">
+        <v>460</v>
       </c>
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>398</v>
-      </c>
-      <c r="B103" t="s">
-        <v>860</v>
-      </c>
-      <c r="C103" t="s">
-        <v>859</v>
+        <v>461</v>
+      </c>
+      <c r="B103" s="22" t="s">
+        <v>961</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>962</v>
       </c>
       <c r="D103"/>
-      <c r="E103" s="17" t="s">
-        <v>896</v>
+      <c r="E103" t="s">
+        <v>209</v>
       </c>
       <c r="F103"/>
       <c r="G103"/>
     </row>
-    <row r="104" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>399</v>
-      </c>
-      <c r="B104" t="s">
-        <v>305</v>
-      </c>
-      <c r="C104" t="s">
-        <v>400</v>
+        <v>462</v>
+      </c>
+      <c r="B104" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>463</v>
       </c>
       <c r="D104"/>
-      <c r="E104" s="17" t="s">
-        <v>896</v>
+      <c r="E104" t="s">
+        <v>444</v>
       </c>
       <c r="F104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>401</v>
-      </c>
-      <c r="B105" t="s">
-        <v>402</v>
-      </c>
-      <c r="C105" t="s">
-        <v>403</v>
+        <v>464</v>
+      </c>
+      <c r="B105" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>466</v>
       </c>
       <c r="D105"/>
-      <c r="E105" s="17" t="s">
-        <v>896</v>
+      <c r="E105" t="s">
+        <v>306</v>
       </c>
       <c r="F105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>404</v>
-      </c>
-      <c r="B106" t="s">
-        <v>862</v>
-      </c>
-      <c r="C106" t="s">
-        <v>861</v>
+        <v>467</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>963</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>964</v>
       </c>
       <c r="D106"/>
-      <c r="E106" s="17" t="s">
-        <v>896</v>
+      <c r="E106" t="s">
+        <v>468</v>
       </c>
       <c r="F106"/>
       <c r="G106"/>
     </row>
-    <row r="107" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>405</v>
-      </c>
-      <c r="B107" t="s">
-        <v>174</v>
-      </c>
-      <c r="C107" t="s">
-        <v>406</v>
+        <v>469</v>
+      </c>
+      <c r="B107" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>470</v>
       </c>
       <c r="D107"/>
-      <c r="E107" s="17" t="s">
-        <v>896</v>
+      <c r="E107" t="s">
+        <v>471</v>
       </c>
       <c r="F107"/>
       <c r="G107"/>
     </row>
-    <row r="108" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>407</v>
-      </c>
-      <c r="B108" t="s">
+        <v>472</v>
+      </c>
+      <c r="B108" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="C108" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="C108" t="s">
-        <v>228</v>
-      </c>
       <c r="D108"/>
-      <c r="E108" s="17" t="s">
-        <v>896</v>
+      <c r="E108" t="s">
+        <v>259</v>
       </c>
       <c r="F108"/>
       <c r="G108"/>
     </row>
-    <row r="109" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>408</v>
-      </c>
-      <c r="B109" t="s">
-        <v>409</v>
-      </c>
-      <c r="C109" t="s">
-        <v>410</v>
+        <v>473</v>
+      </c>
+      <c r="B109" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>475</v>
       </c>
       <c r="D109"/>
-      <c r="E109" s="17" t="s">
-        <v>896</v>
+      <c r="E109" t="s">
+        <v>395</v>
       </c>
       <c r="F109"/>
       <c r="G109"/>
     </row>
-    <row r="110" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>411</v>
-      </c>
-      <c r="B110" t="s">
-        <v>412</v>
-      </c>
-      <c r="C110" t="s">
-        <v>413</v>
+        <v>476</v>
+      </c>
+      <c r="B110" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>478</v>
       </c>
       <c r="D110"/>
-      <c r="E110" s="17" t="s">
-        <v>896</v>
+      <c r="E110" t="s">
+        <v>479</v>
       </c>
       <c r="F110"/>
       <c r="G110"/>
     </row>
-    <row r="111" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>414</v>
-      </c>
-      <c r="B111" t="s">
-        <v>415</v>
-      </c>
-      <c r="C111" t="s">
-        <v>416</v>
+        <v>480</v>
+      </c>
+      <c r="B111" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>482</v>
       </c>
       <c r="D111"/>
-      <c r="E111" s="17" t="s">
-        <v>896</v>
+      <c r="E111" t="s">
+        <v>259</v>
       </c>
       <c r="F111"/>
       <c r="G111"/>
     </row>
-    <row r="112" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>417</v>
-      </c>
-      <c r="B112" t="s">
-        <v>418</v>
-      </c>
-      <c r="C112" t="s">
-        <v>419</v>
+        <v>483</v>
+      </c>
+      <c r="B112" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>485</v>
       </c>
       <c r="D112"/>
-      <c r="E112" s="17" t="s">
-        <v>896</v>
+      <c r="E112" t="s">
+        <v>306</v>
       </c>
       <c r="F112"/>
       <c r="G112"/>
     </row>
-    <row r="113" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>420</v>
-      </c>
-      <c r="B113" t="s">
-        <v>421</v>
-      </c>
-      <c r="C113" t="s">
-        <v>422</v>
+        <v>486</v>
+      </c>
+      <c r="B113" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="C113" s="22" t="s">
+        <v>488</v>
       </c>
       <c r="D113"/>
-      <c r="E113" s="17" t="s">
-        <v>896</v>
+      <c r="E113" t="s">
+        <v>137</v>
       </c>
       <c r="F113"/>
       <c r="G113"/>
     </row>
-    <row r="114" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>423</v>
-      </c>
-      <c r="B114" t="s">
-        <v>424</v>
-      </c>
-      <c r="C114" t="s">
-        <v>425</v>
+        <v>489</v>
+      </c>
+      <c r="B114" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>491</v>
       </c>
       <c r="D114"/>
-      <c r="E114" s="17" t="s">
-        <v>896</v>
+      <c r="E114" t="s">
+        <v>310</v>
       </c>
       <c r="F114"/>
       <c r="G114"/>
     </row>
-    <row r="115" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>426</v>
-      </c>
-      <c r="B115" t="s">
-        <v>427</v>
-      </c>
-      <c r="C115" t="s">
-        <v>428</v>
+        <v>492</v>
+      </c>
+      <c r="B115" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="C115" s="22" t="s">
+        <v>494</v>
       </c>
       <c r="D115"/>
-      <c r="E115" s="17" t="s">
-        <v>896</v>
+      <c r="E115" t="s">
+        <v>495</v>
       </c>
       <c r="F115"/>
       <c r="G115"/>
     </row>
-    <row r="116" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>429</v>
-      </c>
-      <c r="B116" t="s">
-        <v>188</v>
-      </c>
-      <c r="C116" t="s">
-        <v>430</v>
+        <v>496</v>
+      </c>
+      <c r="B116" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C116" s="22" t="s">
+        <v>497</v>
       </c>
       <c r="D116"/>
-      <c r="E116" s="17" t="s">
-        <v>896</v>
+      <c r="E116" t="s">
+        <v>498</v>
       </c>
       <c r="F116"/>
       <c r="G116"/>
     </row>
-    <row r="117" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>431</v>
-      </c>
-      <c r="B117" t="s">
-        <v>397</v>
-      </c>
-      <c r="C117" t="s">
-        <v>432</v>
+        <v>499</v>
+      </c>
+      <c r="B117" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="C117" s="22" t="s">
+        <v>500</v>
       </c>
       <c r="D117"/>
-      <c r="E117" s="17" t="s">
-        <v>896</v>
+      <c r="E117" t="s">
+        <v>501</v>
       </c>
       <c r="F117"/>
       <c r="G117"/>
     </row>
-    <row r="118" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>433</v>
-      </c>
-      <c r="B118" t="s">
-        <v>864</v>
-      </c>
-      <c r="C118" t="s">
-        <v>863</v>
+        <v>502</v>
+      </c>
+      <c r="B118" s="22" t="s">
+        <v>965</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>966</v>
       </c>
       <c r="D118"/>
-      <c r="E118" s="17" t="s">
-        <v>896</v>
+      <c r="E118" t="s">
+        <v>503</v>
       </c>
       <c r="F118"/>
       <c r="G118"/>
     </row>
-    <row r="119" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>434</v>
-      </c>
-      <c r="B119" t="s">
-        <v>866</v>
-      </c>
-      <c r="C119" t="s">
-        <v>865</v>
+        <v>504</v>
+      </c>
+      <c r="B119" s="22" t="s">
+        <v>967</v>
+      </c>
+      <c r="C119" s="22" t="s">
+        <v>968</v>
       </c>
       <c r="D119"/>
-      <c r="E119" s="17" t="s">
-        <v>896</v>
+      <c r="E119" t="s">
+        <v>505</v>
       </c>
       <c r="F119"/>
       <c r="G119"/>
     </row>
-    <row r="120" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>435</v>
-      </c>
-      <c r="B120" t="s">
-        <v>436</v>
-      </c>
-      <c r="C120" t="s">
-        <v>437</v>
+        <v>506</v>
+      </c>
+      <c r="B120" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="C120" s="22" t="s">
+        <v>508</v>
       </c>
       <c r="D120"/>
-      <c r="E120" s="17" t="s">
-        <v>896</v>
+      <c r="E120" t="s">
+        <v>509</v>
       </c>
       <c r="F120"/>
       <c r="G120"/>
     </row>
-    <row r="121" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>438</v>
-      </c>
-      <c r="B121" t="s">
-        <v>439</v>
-      </c>
-      <c r="C121" t="s">
-        <v>440</v>
+        <v>510</v>
+      </c>
+      <c r="B121" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="C121" s="22" t="s">
+        <v>512</v>
       </c>
       <c r="D121"/>
-      <c r="E121" s="17" t="s">
-        <v>896</v>
+      <c r="E121" t="s">
+        <v>495</v>
       </c>
       <c r="F121"/>
       <c r="G121"/>
     </row>
-    <row r="122" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>441</v>
-      </c>
-      <c r="B122" t="s">
-        <v>442</v>
-      </c>
-      <c r="C122" t="s">
-        <v>443</v>
+        <v>513</v>
+      </c>
+      <c r="B122" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="C122" s="22" t="s">
+        <v>515</v>
       </c>
       <c r="D122"/>
-      <c r="E122" s="17" t="s">
-        <v>896</v>
+      <c r="E122" t="s">
+        <v>516</v>
       </c>
       <c r="F122"/>
       <c r="G122"/>
     </row>
-    <row r="123" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>444</v>
-      </c>
-      <c r="B123" t="s">
-        <v>445</v>
-      </c>
-      <c r="C123" t="s">
-        <v>446</v>
+        <v>517</v>
+      </c>
+      <c r="B123" s="22" t="s">
+        <v>518</v>
+      </c>
+      <c r="C123" s="22" t="s">
+        <v>519</v>
       </c>
       <c r="D123"/>
-      <c r="E123" s="17" t="s">
-        <v>896</v>
+      <c r="E123" t="s">
+        <v>209</v>
       </c>
       <c r="F123"/>
       <c r="G123"/>
     </row>
-    <row r="124" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>447</v>
-      </c>
-      <c r="B124" t="s">
-        <v>305</v>
-      </c>
-      <c r="C124" t="s">
-        <v>448</v>
+        <v>520</v>
+      </c>
+      <c r="B124" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="C124" s="22" t="s">
+        <v>521</v>
       </c>
       <c r="D124"/>
-      <c r="E124" s="17" t="s">
-        <v>896</v>
+      <c r="E124" t="s">
+        <v>241</v>
       </c>
       <c r="F124"/>
       <c r="G124"/>
     </row>
-    <row r="125" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>449</v>
-      </c>
-      <c r="B125" t="s">
-        <v>450</v>
-      </c>
-      <c r="C125" t="s">
-        <v>451</v>
+        <v>522</v>
+      </c>
+      <c r="B125" s="22" t="s">
+        <v>523</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>524</v>
       </c>
       <c r="D125"/>
-      <c r="E125" s="17" t="s">
-        <v>896</v>
+      <c r="E125" t="s">
+        <v>525</v>
       </c>
       <c r="F125"/>
       <c r="G125"/>
     </row>
-    <row r="126" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>452</v>
-      </c>
-      <c r="B126" t="s">
-        <v>453</v>
-      </c>
-      <c r="C126" t="s">
-        <v>311</v>
+        <v>526</v>
+      </c>
+      <c r="B126" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="C126" s="22" t="s">
+        <v>358</v>
       </c>
       <c r="D126"/>
-      <c r="E126" s="17" t="s">
-        <v>896</v>
+      <c r="E126" t="s">
+        <v>362</v>
       </c>
       <c r="F126"/>
       <c r="G126"/>
     </row>
-    <row r="127" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>454</v>
-      </c>
-      <c r="B127" t="s">
-        <v>138</v>
-      </c>
-      <c r="C127" t="s">
-        <v>319</v>
+        <v>528</v>
+      </c>
+      <c r="B127" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C127" s="22" t="s">
+        <v>368</v>
       </c>
       <c r="D127"/>
-      <c r="E127" s="17" t="s">
-        <v>896</v>
+      <c r="E127" t="s">
+        <v>529</v>
       </c>
       <c r="F127"/>
       <c r="G127"/>
     </row>
-    <row r="128" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>455</v>
-      </c>
-      <c r="B128" t="s">
+        <v>530</v>
+      </c>
+      <c r="B128" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="C128" t="s">
-        <v>202</v>
+      <c r="C128" s="22" t="s">
+        <v>221</v>
       </c>
       <c r="D128"/>
-      <c r="E128" s="17" t="s">
-        <v>896</v>
+      <c r="E128" t="s">
+        <v>407</v>
       </c>
       <c r="F128"/>
       <c r="G128"/>
     </row>
-    <row r="129" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>456</v>
-      </c>
-      <c r="B129" t="s">
-        <v>457</v>
-      </c>
-      <c r="C129" t="s">
-        <v>202</v>
+        <v>531</v>
+      </c>
+      <c r="B129" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="C129" s="22" t="s">
+        <v>221</v>
       </c>
       <c r="D129"/>
-      <c r="E129" s="17" t="s">
-        <v>896</v>
+      <c r="E129" t="s">
+        <v>533</v>
       </c>
       <c r="F129"/>
       <c r="G129"/>
     </row>
-    <row r="130" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>458</v>
-      </c>
-      <c r="B130" t="s">
-        <v>457</v>
-      </c>
-      <c r="C130" t="s">
-        <v>459</v>
+        <v>534</v>
+      </c>
+      <c r="B130" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="C130" s="22" t="s">
+        <v>535</v>
       </c>
       <c r="D130"/>
-      <c r="E130" s="17" t="s">
-        <v>896</v>
+      <c r="E130" t="s">
+        <v>259</v>
       </c>
       <c r="F130"/>
       <c r="G130"/>
     </row>
-    <row r="131" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>460</v>
-      </c>
-      <c r="B131" t="s">
-        <v>461</v>
-      </c>
-      <c r="C131" t="s">
-        <v>462</v>
+        <v>536</v>
+      </c>
+      <c r="B131" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="C131" s="22" t="s">
+        <v>538</v>
       </c>
       <c r="D131"/>
-      <c r="E131" s="17" t="s">
-        <v>896</v>
+      <c r="E131" t="s">
+        <v>241</v>
       </c>
       <c r="F131"/>
       <c r="G131"/>
     </row>
-    <row r="132" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>463</v>
-      </c>
-      <c r="B132" t="s">
-        <v>389</v>
-      </c>
-      <c r="C132" t="s">
-        <v>464</v>
+        <v>539</v>
+      </c>
+      <c r="B132" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="C132" s="22" t="s">
+        <v>540</v>
       </c>
       <c r="D132"/>
-      <c r="E132" s="17" t="s">
-        <v>896</v>
+      <c r="E132" t="s">
+        <v>216</v>
       </c>
       <c r="F132"/>
       <c r="G132"/>
     </row>
-    <row r="133" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>465</v>
-      </c>
-      <c r="B133" t="s">
-        <v>867</v>
-      </c>
-      <c r="C133" t="s">
-        <v>142</v>
+        <v>541</v>
+      </c>
+      <c r="B133" s="22" t="s">
+        <v>969</v>
+      </c>
+      <c r="C133" s="22" t="s">
+        <v>143</v>
       </c>
       <c r="D133"/>
-      <c r="E133" s="17" t="s">
-        <v>896</v>
+      <c r="E133" t="s">
+        <v>388</v>
       </c>
       <c r="F133"/>
       <c r="G133"/>
     </row>
-    <row r="134" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>466</v>
-      </c>
-      <c r="B134" t="s">
-        <v>467</v>
-      </c>
-      <c r="C134" t="s">
-        <v>142</v>
+        <v>542</v>
+      </c>
+      <c r="B134" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="C134" s="22" t="s">
+        <v>143</v>
       </c>
       <c r="D134"/>
-      <c r="E134" s="17" t="s">
-        <v>896</v>
+      <c r="E134" t="s">
+        <v>241</v>
       </c>
       <c r="F134"/>
       <c r="G134"/>
     </row>
-    <row r="135" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>468</v>
-      </c>
-      <c r="B135" t="s">
-        <v>469</v>
-      </c>
-      <c r="C135" t="s">
-        <v>334</v>
+        <v>544</v>
+      </c>
+      <c r="B135" s="22" t="s">
+        <v>545</v>
+      </c>
+      <c r="C135" s="22" t="s">
+        <v>385</v>
       </c>
       <c r="D135"/>
-      <c r="E135" s="17" t="s">
-        <v>896</v>
+      <c r="E135" t="s">
+        <v>259</v>
       </c>
       <c r="F135"/>
       <c r="G135"/>
     </row>
-    <row r="136" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>470</v>
-      </c>
-      <c r="B136" t="s">
-        <v>471</v>
-      </c>
-      <c r="C136" t="s">
-        <v>472</v>
+        <v>546</v>
+      </c>
+      <c r="B136" s="22" t="s">
+        <v>547</v>
+      </c>
+      <c r="C136" s="22" t="s">
+        <v>548</v>
       </c>
       <c r="D136"/>
-      <c r="E136" s="17" t="s">
-        <v>896</v>
+      <c r="E136" t="s">
+        <v>259</v>
       </c>
       <c r="F136"/>
       <c r="G136"/>
     </row>
-    <row r="137" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>473</v>
-      </c>
-      <c r="B137" t="s">
-        <v>474</v>
-      </c>
-      <c r="C137" t="s">
-        <v>475</v>
+        <v>549</v>
+      </c>
+      <c r="B137" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="C137" s="22" t="s">
+        <v>551</v>
       </c>
       <c r="D137"/>
-      <c r="E137" s="17" t="s">
-        <v>896</v>
+      <c r="E137" t="s">
+        <v>552</v>
       </c>
       <c r="F137"/>
       <c r="G137"/>
     </row>
-    <row r="138" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>476</v>
-      </c>
-      <c r="B138" t="s">
-        <v>299</v>
-      </c>
-      <c r="C138" t="s">
-        <v>898</v>
+        <v>553</v>
+      </c>
+      <c r="B138" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="C138" s="22" t="s">
+        <v>970</v>
       </c>
       <c r="D138"/>
-      <c r="E138" s="17" t="s">
-        <v>896</v>
+      <c r="E138" t="s">
+        <v>554</v>
       </c>
       <c r="F138"/>
       <c r="G138"/>
     </row>
-    <row r="139" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>477</v>
-      </c>
-      <c r="B139" t="s">
-        <v>478</v>
-      </c>
-      <c r="C139" t="s">
-        <v>479</v>
+        <v>555</v>
+      </c>
+      <c r="B139" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="C139" s="22" t="s">
+        <v>557</v>
       </c>
       <c r="D139"/>
-      <c r="E139" s="17" t="s">
-        <v>896</v>
+      <c r="E139" t="s">
+        <v>558</v>
       </c>
       <c r="F139"/>
       <c r="G139"/>
     </row>
-    <row r="140" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>480</v>
-      </c>
-      <c r="B140" t="s">
-        <v>868</v>
-      </c>
-      <c r="C140" t="s">
-        <v>479</v>
+        <v>559</v>
+      </c>
+      <c r="B140" s="22" t="s">
+        <v>971</v>
+      </c>
+      <c r="C140" s="22" t="s">
+        <v>557</v>
       </c>
       <c r="D140"/>
-      <c r="E140" s="17" t="s">
-        <v>896</v>
+      <c r="E140" t="s">
+        <v>560</v>
       </c>
       <c r="F140"/>
       <c r="G140"/>
     </row>
-    <row r="141" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>481</v>
-      </c>
-      <c r="B141" t="s">
-        <v>457</v>
-      </c>
-      <c r="C141" t="s">
-        <v>897</v>
+        <v>561</v>
+      </c>
+      <c r="B141" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="C141" s="22" t="s">
+        <v>972</v>
       </c>
       <c r="D141"/>
-      <c r="E141" s="17" t="s">
-        <v>896</v>
+      <c r="E141" t="s">
+        <v>241</v>
       </c>
       <c r="F141"/>
       <c r="G141"/>
     </row>
-    <row r="142" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>482</v>
-      </c>
-      <c r="B142" t="s">
-        <v>478</v>
-      </c>
-      <c r="C142" t="s">
-        <v>362</v>
+        <v>562</v>
+      </c>
+      <c r="B142" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="C142" s="22" t="s">
+        <v>419</v>
       </c>
       <c r="D142"/>
-      <c r="E142" s="17" t="s">
-        <v>896</v>
+      <c r="E142" t="s">
+        <v>306</v>
       </c>
       <c r="F142"/>
       <c r="G142"/>
     </row>
-    <row r="143" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>483</v>
-      </c>
-      <c r="B143" t="s">
-        <v>484</v>
-      </c>
-      <c r="C143" t="s">
-        <v>485</v>
+        <v>563</v>
+      </c>
+      <c r="B143" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="C143" s="22" t="s">
+        <v>565</v>
       </c>
       <c r="D143"/>
-      <c r="E143" s="17" t="s">
-        <v>896</v>
+      <c r="E143" t="s">
+        <v>566</v>
       </c>
       <c r="F143"/>
       <c r="G143"/>
     </row>
-    <row r="144" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>486</v>
-      </c>
-      <c r="B144" t="s">
-        <v>487</v>
-      </c>
-      <c r="C144" t="s">
-        <v>234</v>
+        <v>567</v>
+      </c>
+      <c r="B144" s="22" t="s">
+        <v>568</v>
+      </c>
+      <c r="C144" s="22" t="s">
+        <v>262</v>
       </c>
       <c r="D144"/>
-      <c r="E144" s="17" t="s">
-        <v>896</v>
+      <c r="E144" t="s">
+        <v>274</v>
       </c>
       <c r="F144"/>
       <c r="G144"/>
     </row>
-    <row r="145" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>488</v>
-      </c>
-      <c r="B145" t="s">
-        <v>489</v>
-      </c>
-      <c r="C145" t="s">
-        <v>490</v>
+        <v>569</v>
+      </c>
+      <c r="B145" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C145" s="22" t="s">
+        <v>571</v>
       </c>
       <c r="D145"/>
-      <c r="E145" s="17" t="s">
-        <v>896</v>
+      <c r="E145" t="s">
+        <v>572</v>
       </c>
       <c r="F145"/>
       <c r="G145"/>
     </row>
-    <row r="146" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>491</v>
-      </c>
-      <c r="B146" t="s">
-        <v>492</v>
-      </c>
-      <c r="C146" t="s">
-        <v>349</v>
+        <v>573</v>
+      </c>
+      <c r="B146" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C146" s="22" t="s">
+        <v>403</v>
       </c>
       <c r="D146"/>
-      <c r="E146" s="17" t="s">
-        <v>896</v>
+      <c r="E146" t="s">
+        <v>575</v>
       </c>
       <c r="F146"/>
       <c r="G146"/>
     </row>
-    <row r="147" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>493</v>
-      </c>
-      <c r="B147" t="s">
-        <v>494</v>
-      </c>
-      <c r="C147" t="s">
-        <v>495</v>
+        <v>576</v>
+      </c>
+      <c r="B147" s="22" t="s">
+        <v>577</v>
+      </c>
+      <c r="C147" s="22" t="s">
+        <v>578</v>
       </c>
       <c r="D147"/>
-      <c r="E147" s="17" t="s">
-        <v>896</v>
+      <c r="E147" t="s">
+        <v>579</v>
       </c>
       <c r="F147"/>
       <c r="G147"/>
     </row>
-    <row r="148" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>496</v>
-      </c>
-      <c r="B148" t="s">
-        <v>216</v>
-      </c>
-      <c r="C148" t="s">
-        <v>497</v>
+        <v>580</v>
+      </c>
+      <c r="B148" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="C148" s="22" t="s">
+        <v>581</v>
       </c>
       <c r="D148"/>
-      <c r="E148" s="17" t="s">
-        <v>896</v>
+      <c r="E148" t="s">
+        <v>554</v>
       </c>
       <c r="F148"/>
       <c r="G148"/>
     </row>
-    <row r="149" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>498</v>
-      </c>
-      <c r="B149" t="s">
-        <v>499</v>
-      </c>
-      <c r="C149" t="s">
-        <v>500</v>
+        <v>582</v>
+      </c>
+      <c r="B149" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="C149" s="22" t="s">
+        <v>584</v>
       </c>
       <c r="D149"/>
-      <c r="E149" s="17" t="s">
-        <v>896</v>
+      <c r="E149" t="s">
+        <v>585</v>
       </c>
       <c r="F149"/>
       <c r="G149"/>
     </row>
-    <row r="150" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>501</v>
-      </c>
-      <c r="B150" t="s">
-        <v>502</v>
-      </c>
-      <c r="C150" t="s">
-        <v>503</v>
+        <v>586</v>
+      </c>
+      <c r="B150" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="C150" s="22" t="s">
+        <v>588</v>
       </c>
       <c r="D150"/>
-      <c r="E150" s="17" t="s">
-        <v>896</v>
+      <c r="E150" t="s">
+        <v>241</v>
       </c>
       <c r="F150"/>
       <c r="G150"/>
     </row>
-    <row r="151" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>504</v>
-      </c>
-      <c r="B151" t="s">
-        <v>505</v>
-      </c>
-      <c r="C151" t="s">
-        <v>506</v>
+        <v>589</v>
+      </c>
+      <c r="B151" s="22" t="s">
+        <v>590</v>
+      </c>
+      <c r="C151" s="22" t="s">
+        <v>591</v>
       </c>
       <c r="D151"/>
-      <c r="E151" s="17" t="s">
-        <v>896</v>
+      <c r="E151" t="s">
+        <v>216</v>
       </c>
       <c r="F151"/>
       <c r="G151"/>
     </row>
-    <row r="152" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>507</v>
-      </c>
-      <c r="B152" t="s">
-        <v>508</v>
-      </c>
-      <c r="C152" t="s">
-        <v>509</v>
+        <v>592</v>
+      </c>
+      <c r="B152" s="22" t="s">
+        <v>593</v>
+      </c>
+      <c r="C152" s="22" t="s">
+        <v>594</v>
       </c>
       <c r="D152"/>
-      <c r="E152" s="17" t="s">
-        <v>896</v>
+      <c r="E152" t="s">
+        <v>595</v>
       </c>
       <c r="F152"/>
       <c r="G152"/>
     </row>
-    <row r="153" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>510</v>
-      </c>
-      <c r="B153" t="s">
-        <v>511</v>
-      </c>
-      <c r="C153" t="s">
-        <v>139</v>
+        <v>596</v>
+      </c>
+      <c r="B153" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="C153" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="D153"/>
-      <c r="E153" s="17" t="s">
-        <v>896</v>
+      <c r="E153" t="s">
+        <v>150</v>
       </c>
       <c r="F153"/>
       <c r="G153"/>
     </row>
-    <row r="154" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>512</v>
-      </c>
-      <c r="B154" t="s">
-        <v>870</v>
-      </c>
-      <c r="C154" t="s">
-        <v>869</v>
+        <v>598</v>
+      </c>
+      <c r="B154" s="22" t="s">
+        <v>973</v>
+      </c>
+      <c r="C154" s="22" t="s">
+        <v>974</v>
       </c>
       <c r="D154"/>
-      <c r="E154" s="17" t="s">
-        <v>896</v>
+      <c r="E154" t="s">
+        <v>599</v>
       </c>
       <c r="F154"/>
       <c r="G154"/>
     </row>
-    <row r="155" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>513</v>
-      </c>
-      <c r="B155" t="s">
-        <v>872</v>
-      </c>
-      <c r="C155" t="s">
-        <v>871</v>
+        <v>600</v>
+      </c>
+      <c r="B155" s="22" t="s">
+        <v>975</v>
+      </c>
+      <c r="C155" s="22" t="s">
+        <v>976</v>
       </c>
       <c r="D155"/>
-      <c r="E155" s="17" t="s">
-        <v>896</v>
+      <c r="E155" t="s">
+        <v>601</v>
       </c>
       <c r="F155"/>
       <c r="G155"/>
     </row>
-    <row r="156" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>514</v>
-      </c>
-      <c r="B156" t="s">
-        <v>515</v>
-      </c>
-      <c r="C156" t="s">
-        <v>516</v>
+        <v>602</v>
+      </c>
+      <c r="B156" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="C156" s="22" t="s">
+        <v>604</v>
       </c>
       <c r="D156"/>
-      <c r="E156" s="17" t="s">
-        <v>896</v>
+      <c r="E156" t="s">
+        <v>605</v>
       </c>
       <c r="F156"/>
       <c r="G156"/>
     </row>
-    <row r="157" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>517</v>
-      </c>
-      <c r="B157" t="s">
-        <v>197</v>
-      </c>
-      <c r="C157" t="s">
-        <v>518</v>
+        <v>606</v>
+      </c>
+      <c r="B157" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="C157" s="22" t="s">
+        <v>607</v>
       </c>
       <c r="D157"/>
-      <c r="E157" s="17" t="s">
-        <v>896</v>
+      <c r="E157" t="s">
+        <v>448</v>
       </c>
       <c r="F157"/>
       <c r="G157"/>
     </row>
-    <row r="158" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>519</v>
-      </c>
-      <c r="B158" t="s">
-        <v>874</v>
-      </c>
-      <c r="C158" t="s">
-        <v>873</v>
+        <v>608</v>
+      </c>
+      <c r="B158" s="22" t="s">
+        <v>977</v>
+      </c>
+      <c r="C158" s="22" t="s">
+        <v>978</v>
       </c>
       <c r="D158"/>
-      <c r="E158" s="17" t="s">
-        <v>896</v>
+      <c r="E158" t="s">
+        <v>609</v>
       </c>
       <c r="F158"/>
       <c r="G158"/>
     </row>
-    <row r="159" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>520</v>
-      </c>
-      <c r="B159" t="s">
-        <v>875</v>
-      </c>
-      <c r="C159" t="s">
-        <v>163</v>
+        <v>610</v>
+      </c>
+      <c r="B159" s="22" t="s">
+        <v>979</v>
+      </c>
+      <c r="C159" s="22" t="s">
+        <v>169</v>
       </c>
       <c r="D159"/>
-      <c r="E159" s="17" t="s">
-        <v>896</v>
+      <c r="E159" t="s">
+        <v>611</v>
       </c>
       <c r="F159"/>
       <c r="G159"/>
     </row>
-    <row r="160" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>521</v>
-      </c>
-      <c r="B160" t="s">
-        <v>522</v>
-      </c>
-      <c r="C160" t="s">
-        <v>523</v>
+        <v>612</v>
+      </c>
+      <c r="B160" s="22" t="s">
+        <v>613</v>
+      </c>
+      <c r="C160" s="22" t="s">
+        <v>614</v>
       </c>
       <c r="D160"/>
-      <c r="E160" s="17" t="s">
-        <v>896</v>
+      <c r="E160" t="s">
+        <v>615</v>
       </c>
       <c r="F160"/>
       <c r="G160"/>
     </row>
-    <row r="161" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>524</v>
-      </c>
-      <c r="B161" t="s">
-        <v>525</v>
-      </c>
-      <c r="C161" t="s">
-        <v>526</v>
+        <v>616</v>
+      </c>
+      <c r="B161" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="C161" s="22" t="s">
+        <v>618</v>
       </c>
       <c r="D161"/>
-      <c r="E161" s="17" t="s">
-        <v>896</v>
+      <c r="E161" t="s">
+        <v>259</v>
       </c>
       <c r="F161"/>
       <c r="G161"/>
     </row>
-    <row r="162" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>527</v>
-      </c>
-      <c r="B162" t="s">
-        <v>254</v>
-      </c>
-      <c r="C162" t="s">
-        <v>528</v>
+        <v>619</v>
+      </c>
+      <c r="B162" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="C162" s="22" t="s">
+        <v>620</v>
       </c>
       <c r="D162"/>
-      <c r="E162" s="17" t="s">
-        <v>896</v>
+      <c r="E162" t="s">
+        <v>241</v>
       </c>
       <c r="F162"/>
       <c r="G162"/>
     </row>
-    <row r="163" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>529</v>
-      </c>
-      <c r="B163" t="s">
-        <v>383</v>
-      </c>
-      <c r="C163" t="s">
-        <v>530</v>
+        <v>621</v>
+      </c>
+      <c r="B163" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="C163" s="22" t="s">
+        <v>622</v>
       </c>
       <c r="D163"/>
-      <c r="E163" s="17" t="s">
-        <v>896</v>
+      <c r="E163" t="s">
+        <v>237</v>
       </c>
       <c r="F163"/>
       <c r="G163"/>
     </row>
-    <row r="164" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>531</v>
-      </c>
-      <c r="B164" t="s">
-        <v>532</v>
-      </c>
-      <c r="C164" t="s">
-        <v>533</v>
+        <v>623</v>
+      </c>
+      <c r="B164" s="22" t="s">
+        <v>624</v>
+      </c>
+      <c r="C164" s="22" t="s">
+        <v>625</v>
       </c>
       <c r="D164"/>
-      <c r="E164" s="17" t="s">
-        <v>896</v>
+      <c r="E164" t="s">
+        <v>626</v>
       </c>
       <c r="F164"/>
       <c r="G164"/>
     </row>
-    <row r="165" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>534</v>
-      </c>
-      <c r="B165" t="s">
-        <v>877</v>
-      </c>
-      <c r="C165" t="s">
-        <v>876</v>
+        <v>627</v>
+      </c>
+      <c r="B165" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="C165" s="22" t="s">
+        <v>981</v>
       </c>
       <c r="D165"/>
-      <c r="E165" s="17" t="s">
-        <v>896</v>
+      <c r="E165" t="s">
+        <v>274</v>
       </c>
       <c r="F165"/>
       <c r="G165"/>
     </row>
-    <row r="166" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>535</v>
-      </c>
-      <c r="B166" t="s">
-        <v>536</v>
-      </c>
-      <c r="C166" t="s">
-        <v>537</v>
+        <v>628</v>
+      </c>
+      <c r="B166" s="22" t="s">
+        <v>629</v>
+      </c>
+      <c r="C166" s="22" t="s">
+        <v>630</v>
       </c>
       <c r="D166"/>
-      <c r="E166" s="17" t="s">
-        <v>896</v>
+      <c r="E166" t="s">
+        <v>395</v>
       </c>
       <c r="F166"/>
       <c r="G166"/>
     </row>
-    <row r="167" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>538</v>
-      </c>
-      <c r="B167" t="s">
-        <v>188</v>
-      </c>
-      <c r="C167" t="s">
-        <v>539</v>
+        <v>631</v>
+      </c>
+      <c r="B167" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C167" s="22" t="s">
+        <v>632</v>
       </c>
       <c r="D167"/>
-      <c r="E167" s="17" t="s">
-        <v>896</v>
+      <c r="E167" t="s">
+        <v>237</v>
       </c>
       <c r="F167"/>
       <c r="G167"/>
     </row>
-    <row r="168" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>540</v>
-      </c>
-      <c r="B168" t="s">
-        <v>188</v>
-      </c>
-      <c r="C168" t="s">
-        <v>541</v>
+        <v>633</v>
+      </c>
+      <c r="B168" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C168" s="22" t="s">
+        <v>634</v>
       </c>
       <c r="D168"/>
-      <c r="E168" s="17" t="s">
-        <v>896</v>
+      <c r="E168" t="s">
+        <v>259</v>
       </c>
       <c r="F168"/>
       <c r="G168"/>
     </row>
-    <row r="169" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>542</v>
-      </c>
-      <c r="B169" t="s">
-        <v>254</v>
-      </c>
-      <c r="C169" t="s">
-        <v>543</v>
+        <v>635</v>
+      </c>
+      <c r="B169" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="C169" s="22" t="s">
+        <v>636</v>
       </c>
       <c r="D169"/>
-      <c r="E169" s="17" t="s">
-        <v>896</v>
+      <c r="E169" t="s">
+        <v>637</v>
       </c>
       <c r="F169"/>
       <c r="G169"/>
     </row>
-    <row r="170" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>544</v>
-      </c>
-      <c r="B170" t="s">
-        <v>879</v>
-      </c>
-      <c r="C170" t="s">
-        <v>878</v>
+        <v>638</v>
+      </c>
+      <c r="B170" s="22" t="s">
+        <v>982</v>
+      </c>
+      <c r="C170" s="22" t="s">
+        <v>983</v>
       </c>
       <c r="D170"/>
-      <c r="E170" s="17" t="s">
-        <v>896</v>
+      <c r="E170" t="s">
+        <v>259</v>
       </c>
       <c r="F170"/>
       <c r="G170"/>
     </row>
-    <row r="171" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>545</v>
-      </c>
-      <c r="B171" t="s">
-        <v>546</v>
-      </c>
-      <c r="C171" t="s">
-        <v>547</v>
+        <v>639</v>
+      </c>
+      <c r="B171" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="C171" s="22" t="s">
+        <v>641</v>
       </c>
       <c r="D171"/>
-      <c r="E171" s="17" t="s">
-        <v>896</v>
+      <c r="E171" t="s">
+        <v>642</v>
       </c>
       <c r="F171"/>
       <c r="G171"/>
     </row>
-    <row r="172" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>548</v>
-      </c>
-      <c r="B172" t="s">
-        <v>881</v>
-      </c>
-      <c r="C172" t="s">
-        <v>880</v>
+        <v>643</v>
+      </c>
+      <c r="B172" s="22" t="s">
+        <v>984</v>
+      </c>
+      <c r="C172" s="22" t="s">
+        <v>985</v>
       </c>
       <c r="D172"/>
-      <c r="E172" s="17" t="s">
-        <v>896</v>
+      <c r="E172" t="s">
+        <v>216</v>
       </c>
       <c r="F172"/>
       <c r="G172"/>
     </row>
-    <row r="173" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>549</v>
-      </c>
-      <c r="B173" t="s">
-        <v>882</v>
-      </c>
-      <c r="C173" t="s">
-        <v>142</v>
+        <v>644</v>
+      </c>
+      <c r="B173" s="22" t="s">
+        <v>986</v>
+      </c>
+      <c r="C173" s="22" t="s">
+        <v>143</v>
       </c>
       <c r="D173"/>
-      <c r="E173" s="17" t="s">
-        <v>896</v>
+      <c r="E173" t="s">
+        <v>645</v>
       </c>
       <c r="F173"/>
       <c r="G173"/>
     </row>
-    <row r="174" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>550</v>
-      </c>
-      <c r="B174" t="s">
-        <v>343</v>
-      </c>
-      <c r="C174" t="s">
-        <v>142</v>
+        <v>646</v>
+      </c>
+      <c r="B174" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="C174" s="22" t="s">
+        <v>143</v>
       </c>
       <c r="D174"/>
-      <c r="E174" s="17" t="s">
-        <v>896</v>
+      <c r="E174" t="s">
+        <v>241</v>
       </c>
       <c r="F174"/>
       <c r="G174"/>
     </row>
-    <row r="175" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>551</v>
-      </c>
-      <c r="B175" t="s">
-        <v>883</v>
-      </c>
-      <c r="C175" t="s">
-        <v>142</v>
+        <v>647</v>
+      </c>
+      <c r="B175" s="22" t="s">
+        <v>987</v>
+      </c>
+      <c r="C175" s="22" t="s">
+        <v>143</v>
       </c>
       <c r="D175"/>
-      <c r="E175" s="17" t="s">
-        <v>896</v>
+      <c r="E175" t="s">
+        <v>216</v>
       </c>
       <c r="F175"/>
       <c r="G175"/>
     </row>
-    <row r="176" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>552</v>
-      </c>
-      <c r="B176" t="s">
-        <v>553</v>
-      </c>
-      <c r="C176" t="s">
-        <v>554</v>
+        <v>648</v>
+      </c>
+      <c r="B176" s="22" t="s">
+        <v>649</v>
+      </c>
+      <c r="C176" s="22" t="s">
+        <v>650</v>
       </c>
       <c r="D176"/>
-      <c r="E176" s="17" t="s">
-        <v>896</v>
+      <c r="E176" t="s">
+        <v>642</v>
       </c>
       <c r="F176"/>
       <c r="G176"/>
     </row>
-    <row r="177" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>555</v>
-      </c>
-      <c r="B177" t="s">
-        <v>884</v>
-      </c>
-      <c r="C177" t="s">
-        <v>850</v>
+        <v>651</v>
+      </c>
+      <c r="B177" s="22" t="s">
+        <v>988</v>
+      </c>
+      <c r="C177" s="22" t="s">
+        <v>952</v>
       </c>
       <c r="D177"/>
-      <c r="E177" s="17" t="s">
-        <v>896</v>
+      <c r="E177" t="s">
+        <v>652</v>
       </c>
       <c r="F177"/>
       <c r="G177"/>
     </row>
-    <row r="178" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>556</v>
-      </c>
-      <c r="B178" t="s">
-        <v>557</v>
-      </c>
-      <c r="C178" t="s">
-        <v>885</v>
+        <v>653</v>
+      </c>
+      <c r="B178" s="22" t="s">
+        <v>654</v>
+      </c>
+      <c r="C178" s="22" t="s">
+        <v>989</v>
       </c>
       <c r="D178"/>
-      <c r="E178" s="17" t="s">
-        <v>896</v>
+      <c r="E178" t="s">
+        <v>259</v>
       </c>
       <c r="F178"/>
       <c r="G178"/>
     </row>
-    <row r="179" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>558</v>
-      </c>
-      <c r="B179" t="s">
-        <v>457</v>
-      </c>
-      <c r="C179" s="17" t="s">
-        <v>885</v>
+        <v>655</v>
+      </c>
+      <c r="B179" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="C179" s="22" t="s">
+        <v>989</v>
       </c>
       <c r="D179"/>
-      <c r="E179" s="17" t="s">
-        <v>896</v>
+      <c r="E179" t="s">
+        <v>352</v>
       </c>
       <c r="F179"/>
       <c r="G179"/>
     </row>
-    <row r="180" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>559</v>
-      </c>
-      <c r="B180" t="s">
-        <v>236</v>
-      </c>
-      <c r="C180" t="s">
-        <v>886</v>
+        <v>656</v>
+      </c>
+      <c r="B180" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C180" s="22" t="s">
+        <v>990</v>
       </c>
       <c r="D180"/>
-      <c r="E180" s="17" t="s">
-        <v>896</v>
+      <c r="E180" t="s">
+        <v>657</v>
       </c>
       <c r="F180"/>
       <c r="G180"/>
     </row>
-    <row r="181" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>560</v>
-      </c>
-      <c r="B181" t="s">
-        <v>561</v>
-      </c>
-      <c r="C181" t="s">
-        <v>562</v>
+        <v>658</v>
+      </c>
+      <c r="B181" s="22" t="s">
+        <v>659</v>
+      </c>
+      <c r="C181" s="22" t="s">
+        <v>660</v>
       </c>
       <c r="D181"/>
-      <c r="E181" s="17" t="s">
-        <v>896</v>
+      <c r="E181" t="s">
+        <v>661</v>
       </c>
       <c r="F181"/>
       <c r="G181"/>
     </row>
-    <row r="182" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>563</v>
-      </c>
-      <c r="B182" t="s">
-        <v>564</v>
-      </c>
-      <c r="C182" t="s">
-        <v>565</v>
+        <v>662</v>
+      </c>
+      <c r="B182" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="C182" s="22" t="s">
+        <v>664</v>
       </c>
       <c r="D182"/>
-      <c r="E182" s="17" t="s">
-        <v>896</v>
+      <c r="E182" t="s">
+        <v>259</v>
       </c>
       <c r="F182"/>
       <c r="G182"/>
     </row>
-    <row r="183" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>566</v>
-      </c>
-      <c r="B183" t="s">
-        <v>567</v>
-      </c>
-      <c r="C183" t="s">
-        <v>568</v>
+        <v>665</v>
+      </c>
+      <c r="B183" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="C183" s="22" t="s">
+        <v>667</v>
       </c>
       <c r="D183"/>
-      <c r="E183" s="17" t="s">
-        <v>896</v>
+      <c r="E183" t="s">
+        <v>241</v>
       </c>
       <c r="F183"/>
       <c r="G183"/>
     </row>
-    <row r="184" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>569</v>
-      </c>
-      <c r="B184" t="s">
-        <v>191</v>
-      </c>
-      <c r="C184" t="s">
-        <v>570</v>
+        <v>668</v>
+      </c>
+      <c r="B184" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C184" s="22" t="s">
+        <v>669</v>
       </c>
       <c r="D184"/>
-      <c r="E184" s="17" t="s">
-        <v>896</v>
+      <c r="E184" t="s">
+        <v>670</v>
       </c>
       <c r="F184"/>
       <c r="G184"/>
     </row>
-    <row r="185" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>571</v>
-      </c>
-      <c r="B185" t="s">
-        <v>887</v>
-      </c>
-      <c r="C185" t="s">
-        <v>362</v>
+        <v>671</v>
+      </c>
+      <c r="B185" s="22" t="s">
+        <v>991</v>
+      </c>
+      <c r="C185" s="22" t="s">
+        <v>419</v>
       </c>
       <c r="D185"/>
-      <c r="E185" s="17" t="s">
-        <v>896</v>
+      <c r="E185" t="s">
+        <v>448</v>
       </c>
       <c r="F185"/>
       <c r="G185"/>
     </row>
-    <row r="186" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>572</v>
-      </c>
-      <c r="B186" t="s">
-        <v>889</v>
-      </c>
-      <c r="C186" t="s">
-        <v>888</v>
+        <v>672</v>
+      </c>
+      <c r="B186" s="22" t="s">
+        <v>992</v>
+      </c>
+      <c r="C186" s="22" t="s">
+        <v>993</v>
       </c>
       <c r="D186"/>
-      <c r="E186" s="17" t="s">
-        <v>896</v>
+      <c r="E186" t="s">
+        <v>216</v>
       </c>
       <c r="F186"/>
       <c r="G186"/>
     </row>
-    <row r="187" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>573</v>
-      </c>
-      <c r="B187" t="s">
-        <v>574</v>
-      </c>
-      <c r="C187" t="s">
-        <v>234</v>
+        <v>673</v>
+      </c>
+      <c r="B187" s="22" t="s">
+        <v>674</v>
+      </c>
+      <c r="C187" s="22" t="s">
+        <v>262</v>
       </c>
       <c r="D187"/>
-      <c r="E187" s="17" t="s">
-        <v>896</v>
+      <c r="E187" t="s">
+        <v>216</v>
       </c>
       <c r="F187"/>
       <c r="G187"/>
     </row>
-    <row r="188" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>575</v>
-      </c>
-      <c r="B188" t="s">
-        <v>891</v>
-      </c>
-      <c r="C188" t="s">
-        <v>890</v>
+        <v>675</v>
+      </c>
+      <c r="B188" s="22" t="s">
+        <v>994</v>
+      </c>
+      <c r="C188" s="22" t="s">
+        <v>995</v>
       </c>
       <c r="D188"/>
-      <c r="E188" s="17" t="s">
-        <v>896</v>
+      <c r="E188" t="s">
+        <v>676</v>
       </c>
       <c r="F188"/>
       <c r="G188"/>
     </row>
-    <row r="189" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>576</v>
-      </c>
-      <c r="B189" t="s">
-        <v>893</v>
-      </c>
-      <c r="C189" t="s">
-        <v>892</v>
+        <v>677</v>
+      </c>
+      <c r="B189" s="22" t="s">
+        <v>996</v>
+      </c>
+      <c r="C189" s="22" t="s">
+        <v>997</v>
       </c>
       <c r="D189"/>
-      <c r="E189" s="17" t="s">
-        <v>896</v>
+      <c r="E189" t="s">
+        <v>298</v>
       </c>
       <c r="F189"/>
       <c r="G189"/>
     </row>
-    <row r="190" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>577</v>
-      </c>
-      <c r="B190" t="s">
-        <v>895</v>
-      </c>
-      <c r="C190" t="s">
-        <v>894</v>
+        <v>678</v>
+      </c>
+      <c r="B190" s="22" t="s">
+        <v>998</v>
+      </c>
+      <c r="C190" s="22" t="s">
+        <v>999</v>
       </c>
       <c r="D190"/>
-      <c r="E190" s="17" t="s">
-        <v>896</v>
+      <c r="E190" t="s">
+        <v>679</v>
       </c>
       <c r="F190"/>
       <c r="G190"/>
     </row>
-    <row r="191" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>578</v>
-      </c>
-      <c r="B191" t="s">
-        <v>579</v>
-      </c>
-      <c r="C191" t="s">
-        <v>580</v>
+        <v>680</v>
+      </c>
+      <c r="B191" s="22" t="s">
+        <v>681</v>
+      </c>
+      <c r="C191" s="22" t="s">
+        <v>682</v>
       </c>
       <c r="D191"/>
-      <c r="E191" s="17" t="s">
-        <v>896</v>
+      <c r="E191" t="s">
+        <v>554</v>
       </c>
       <c r="F191"/>
       <c r="G191"/>
     </row>
-    <row r="192" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="193" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="194" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="195" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="196" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="197" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="198" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="199" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="200" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="201" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="202" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="203" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="204" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="205" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="206" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="207" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="208" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="209" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="210" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="211" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="212" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="213" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="214" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="215" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="216" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="217" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="218" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="219" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="220" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="221" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="222" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="223" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="224" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="225" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="226" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="227" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="228" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="229" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="230" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="231" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="232" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="233" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="234" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="235" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="236" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="237" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="238" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="239" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="240" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="241" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="242" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="243" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="244" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="245" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="246" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="247" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="248" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="249" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="250" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="251" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="252" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="253" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="254" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="255" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="256" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="257" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="258" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="259" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="260" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="261" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="262" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="263" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="264" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="265" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="266" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="267" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="268" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="269" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="270" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="271" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="272" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="273" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="274" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="275" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="276" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="277" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="278" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="279" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="280" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="281" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="282" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="283" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="284" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="285" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="286" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="287" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="288" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="289" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="290" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="291" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="292" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="293" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="294" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="295" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="296" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="297" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="298" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="299" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="300" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="301" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="302" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="303" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="304" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="305" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="306" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="307" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="308" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="309" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="310" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="311" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="312" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="313" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="314" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="315" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="316" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="317" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="318" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="319" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="320" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="321" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="322" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="323" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="324" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="325" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="326" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="327" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="328" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="329" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="330" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="331" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="332" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="333" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="334" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="335" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="336" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="337" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="338" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="339" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="340" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="341" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="342" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="343" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="344" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="345" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="346" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="347" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="348" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="349" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="350" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="351" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="352" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="353" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="354" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="355" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="356" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="357" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="358" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="359" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="360" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="361" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="362" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="363" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="364" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="365" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="366" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="367" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="368" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="369" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="370" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="371" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="372" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="373" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="374" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="375" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="376" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="377" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="378" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="379" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="380" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="381" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="382" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="383" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="384" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="385" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="386" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="387" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="388" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="389" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="390" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="391" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="392" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="393" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="394" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="395" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="396" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="397" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="398" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="399" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="400" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="401" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="402" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="403" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="404" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="405" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="406" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="407" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="408" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="409" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="410" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="411" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="412" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="413" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="414" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="415" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="416" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="417" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="418" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="419" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="420" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="421" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="422" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="423" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="424" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="425" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="426" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="427" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="428" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="429" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="430" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="431" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="432" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="433" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="434" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="435" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="436" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="437" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="438" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="439" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="440" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="441" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="442" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="443" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="444" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="445" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="446" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="447" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="448" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="449" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="450" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="451" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="452" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="453" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="454" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="455" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="456" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="457" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="458" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="459" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="460" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="461" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="462" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="463" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="464" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="465" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="466" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="467" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="468" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="469" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="470" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="471" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="472" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="473" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="474" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="475" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="476" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="477" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="478" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="479" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="480" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="481" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="482" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="483" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="484" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="485" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="486" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="487" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="488" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="489" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="490" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="491" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="492" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="493" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="494" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="495" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="496" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="497" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="498" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="499" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="500" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="501" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="502" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="503" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="504" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="505" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="506" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="507" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="508" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="509" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="510" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="511" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="512" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="513" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="514" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="515" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="516" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="517" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="518" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="519" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="520" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="521" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="522" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="523" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="524" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="525" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="526" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="527" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="528" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="529" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="530" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="531" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="532" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="533" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="534" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="535" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="536" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="537" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="538" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="539" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="540" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="541" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="542" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="543" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="544" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="545" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="546" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="547" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="548" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="549" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="550" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="551" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="552" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="553" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="554" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="555" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="556" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="557" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="558" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="559" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="560" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="561" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="562" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="563" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="564" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="565" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="566" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="567" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="568" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="569" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="570" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="571" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="572" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="573" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="574" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="575" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="576" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="577" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="578" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="579" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="580" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="581" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="582" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="583" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="584" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="585" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="586" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="587" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="588" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="589" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="590" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="591" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="592" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="593" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="594" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="595" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="596" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="597" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="598" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="599" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="600" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="601" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="602" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="603" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="604" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="605" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="606" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="607" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="608" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="609" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="610" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="611" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="612" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="613" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="614" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="615" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="616" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="617" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="618" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="619" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="620" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="621" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="622" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="623" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="624" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="625" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="626" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="627" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="628" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="629" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="630" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="631" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="632" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="633" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="634" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="635" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="636" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="637" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="638" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="639" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="640" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="641" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="642" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="643" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="644" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="645" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="646" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="647" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="648" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="649" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="650" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="651" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="652" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="653" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="654" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="655" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="656" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="657" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="658" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="659" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="660" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="661" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="662" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="663" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="664" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="665" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="666" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="667" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="668" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="669" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="670" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="671" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="672" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="673" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="674" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="675" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="676" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="677" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="678" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="679" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="680" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="681" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="682" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="683" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="684" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="685" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="686" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="687" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="688" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="689" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="690" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="691" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="692" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="693" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="694" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="695" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="696" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="697" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="698" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="699" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="700" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="701" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="702" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="703" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="704" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="705" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="706" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="707" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="708" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="709" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="710" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="711" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="712" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="713" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="714" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="715" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="716" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="717" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="718" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="719" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="720" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="721" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="722" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="723" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="724" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="725" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="726" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="727" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="728" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="729" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="730" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="731" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="732" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="733" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="734" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="735" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="736" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="737" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="738" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="739" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="740" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="741" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="742" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="743" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="744" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -16769,52 +16397,52 @@
   <sheetData>
     <row r="1" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>581</v>
+        <v>683</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>582</v>
+        <v>684</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>583</v>
+        <v>685</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>584</v>
+        <v>686</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>585</v>
+        <v>687</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>586</v>
+        <v>688</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>587</v>
+        <v>689</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>588</v>
+        <v>690</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>589</v>
+        <v>691</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>590</v>
+        <v>692</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>591</v>
+        <v>693</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>592</v>
+        <v>694</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>593</v>
+        <v>695</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>594</v>
+        <v>696</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>595</v>
+        <v>697</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>596</v>
+        <v>698</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -16822,42 +16450,42 @@
         <v>57</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>597</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="21" t="s">
-        <v>598</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="12" t="s">
-        <v>599</v>
+        <v>701</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
-        <v>600</v>
+        <v>702</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="12" t="s">
-        <v>601</v>
+        <v>703</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="21" t="s">
-        <v>602</v>
+        <v>704</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="21" t="s">
-        <v>603</v>
+        <v>705</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="21" t="s">
-        <v>604</v>
+        <v>706</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -16865,190 +16493,190 @@
         <v>65</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>605</v>
+        <v>707</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>606</v>
+        <v>708</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="12" t="s">
-        <v>607</v>
+        <v>709</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="12" t="s">
-        <v>608</v>
+        <v>710</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="12" t="s">
-        <v>609</v>
+        <v>711</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="12" t="s">
-        <v>610</v>
+        <v>712</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>611</v>
+        <v>713</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="12" t="s">
-        <v>612</v>
+        <v>714</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="12" t="s">
-        <v>613</v>
+        <v>715</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="12" t="s">
-        <v>614</v>
+        <v>716</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>615</v>
+        <v>717</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="12" t="s">
-        <v>616</v>
+        <v>718</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>617</v>
+        <v>719</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="12" t="s">
-        <v>618</v>
+        <v>720</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>619</v>
+        <v>721</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="12" t="s">
-        <v>620</v>
+        <v>722</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>621</v>
+        <v>723</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="12" t="s">
-        <v>622</v>
+        <v>724</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="12" t="s">
-        <v>623</v>
+        <v>725</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>624</v>
+        <v>726</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="12" t="s">
-        <v>625</v>
+        <v>727</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>626</v>
+        <v>728</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="12" t="s">
-        <v>627</v>
+        <v>729</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>628</v>
+        <v>730</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="12" t="s">
-        <v>629</v>
+        <v>731</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>630</v>
+        <v>732</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="12" t="s">
-        <v>631</v>
+        <v>733</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>632</v>
+        <v>734</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="21" t="s">
-        <v>633</v>
+        <v>735</v>
       </c>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="21" t="s">
-        <v>634</v>
+        <v>736</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="12" t="s">
-        <v>635</v>
+        <v>737</v>
       </c>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="12" t="s">
-        <v>636</v>
+        <v>738</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="12" t="s">
-        <v>637</v>
+        <v>739</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>638</v>
+        <v>740</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="12" t="s">
-        <v>639</v>
+        <v>741</v>
       </c>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="12" t="s">
-        <v>640</v>
+        <v>742</v>
       </c>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="12" t="s">
-        <v>641</v>
+        <v>743</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>642</v>
+        <v>744</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="12" t="s">
-        <v>643</v>
+        <v>745</v>
       </c>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="12" t="s">
-        <v>644</v>
+        <v>746</v>
       </c>
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="12" t="s">
-        <v>645</v>
+        <v>747</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>646</v>
+        <v>748</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -17056,150 +16684,150 @@
         <v>71</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>647</v>
+        <v>749</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>648</v>
+        <v>750</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="13" t="s">
-        <v>649</v>
+        <v>751</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="13" t="s">
-        <v>650</v>
+        <v>752</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>651</v>
+        <v>753</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="13" t="s">
-        <v>652</v>
+        <v>754</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="13" t="s">
-        <v>653</v>
+        <v>755</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="13" t="s">
-        <v>654</v>
+        <v>756</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="13" t="s">
-        <v>655</v>
+        <v>757</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="13" t="s">
-        <v>656</v>
+        <v>758</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="13" t="s">
-        <v>657</v>
+        <v>759</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>658</v>
+        <v>760</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="13" t="s">
-        <v>659</v>
+        <v>761</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="13" t="s">
-        <v>660</v>
+        <v>762</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="13" t="s">
-        <v>661</v>
+        <v>763</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="13" t="s">
-        <v>662</v>
+        <v>764</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="13" t="s">
-        <v>663</v>
+        <v>765</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="13" t="s">
-        <v>664</v>
+        <v>766</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>665</v>
+        <v>767</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="13" t="s">
-        <v>666</v>
+        <v>768</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="13" t="s">
-        <v>667</v>
+        <v>769</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="13" t="s">
-        <v>668</v>
+        <v>770</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="13" t="s">
-        <v>669</v>
+        <v>771</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="13" t="s">
-        <v>670</v>
+        <v>772</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="13" t="s">
-        <v>671</v>
+        <v>773</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="13" t="s">
-        <v>672</v>
+        <v>774</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="13" t="s">
-        <v>673</v>
+        <v>775</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>674</v>
+        <v>776</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="13" t="s">
-        <v>675</v>
+        <v>777</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="13" t="s">
-        <v>676</v>
+        <v>778</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="13" t="s">
-        <v>677</v>
+        <v>779</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>678</v>
+        <v>780</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -17207,183 +16835,183 @@
         <v>77</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>679</v>
+        <v>781</v>
       </c>
       <c r="C64" s="1"/>
     </row>
     <row r="65" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="12" t="s">
-        <v>680</v>
+        <v>782</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="12" t="s">
-        <v>681</v>
+        <v>783</v>
       </c>
       <c r="C66" s="1"/>
     </row>
     <row r="67" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="12" t="s">
-        <v>682</v>
+        <v>784</v>
       </c>
       <c r="C67" s="1"/>
     </row>
     <row r="68" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="12" t="s">
-        <v>683</v>
+        <v>785</v>
       </c>
       <c r="C68" s="1"/>
     </row>
     <row r="69" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="12" t="s">
-        <v>684</v>
+        <v>786</v>
       </c>
       <c r="C69" s="1"/>
     </row>
     <row r="70" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="12" t="s">
-        <v>685</v>
+        <v>787</v>
       </c>
       <c r="C70" s="1"/>
     </row>
     <row r="71" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="12" t="s">
-        <v>686</v>
+        <v>788</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>687</v>
+        <v>789</v>
       </c>
     </row>
     <row r="72" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="21" t="s">
-        <v>688</v>
+        <v>790</v>
       </c>
       <c r="C72" s="1"/>
     </row>
     <row r="73" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="12" t="s">
-        <v>689</v>
+        <v>791</v>
       </c>
       <c r="C73" s="1"/>
     </row>
     <row r="74" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="12" t="s">
-        <v>690</v>
+        <v>792</v>
       </c>
     </row>
     <row r="75" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="12" t="s">
-        <v>691</v>
+        <v>793</v>
       </c>
     </row>
     <row r="76" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="12" t="s">
-        <v>692</v>
+        <v>794</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>693</v>
+        <v>795</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="12" t="s">
-        <v>694</v>
+        <v>796</v>
       </c>
       <c r="C77" s="1"/>
     </row>
     <row r="78" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="12" t="s">
-        <v>695</v>
+        <v>797</v>
       </c>
     </row>
     <row r="79" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="12" t="s">
-        <v>696</v>
+        <v>798</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>697</v>
+        <v>799</v>
       </c>
     </row>
     <row r="80" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="12" t="s">
-        <v>698</v>
+        <v>800</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="12" t="s">
-        <v>699</v>
+        <v>801</v>
       </c>
       <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="12" t="s">
-        <v>700</v>
+        <v>802</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>701</v>
+        <v>803</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="21" t="s">
-        <v>702</v>
+        <v>804</v>
       </c>
       <c r="C83" s="1"/>
     </row>
     <row r="84" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="12" t="s">
-        <v>703</v>
+        <v>805</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="12" t="s">
-        <v>704</v>
+        <v>806</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>705</v>
+        <v>807</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="12" t="s">
-        <v>706</v>
+        <v>808</v>
       </c>
       <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="12" t="s">
-        <v>707</v>
+        <v>809</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="12" t="s">
-        <v>708</v>
+        <v>810</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>709</v>
+        <v>811</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="12" t="s">
-        <v>710</v>
+        <v>812</v>
       </c>
       <c r="C89" s="1"/>
     </row>
     <row r="90" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="12" t="s">
-        <v>711</v>
+        <v>813</v>
       </c>
       <c r="C90" s="1"/>
     </row>
     <row r="91" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="12" t="s">
-        <v>712</v>
+        <v>814</v>
       </c>
       <c r="C91" s="21"/>
     </row>
     <row r="92" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="21" t="s">
-        <v>713</v>
+        <v>815</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>714</v>
+        <v>816</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -17391,175 +17019,175 @@
         <v>83</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>715</v>
+        <v>817</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="12" t="s">
-        <v>716</v>
+        <v>818</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="12" t="s">
-        <v>717</v>
+        <v>819</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="21" t="s">
-        <v>718</v>
+        <v>820</v>
       </c>
       <c r="C96" s="1"/>
     </row>
     <row r="97" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="21" t="s">
-        <v>719</v>
+        <v>821</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>720</v>
+        <v>822</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="12" t="s">
-        <v>721</v>
+        <v>823</v>
       </c>
     </row>
     <row r="99" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B99" s="21" t="s">
-        <v>722</v>
+        <v>824</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>720</v>
+        <v>822</v>
       </c>
     </row>
     <row r="100" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="12" t="s">
-        <v>723</v>
+        <v>825</v>
       </c>
     </row>
     <row r="101" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="12" t="s">
-        <v>724</v>
+        <v>826</v>
       </c>
     </row>
     <row r="102" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="12" t="s">
-        <v>725</v>
+        <v>827</v>
       </c>
     </row>
     <row r="103" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="12" t="s">
-        <v>726</v>
+        <v>828</v>
       </c>
     </row>
     <row r="104" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="12" t="s">
-        <v>727</v>
+        <v>829</v>
       </c>
     </row>
     <row r="105" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="12" t="s">
-        <v>728</v>
+        <v>830</v>
       </c>
     </row>
     <row r="106" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="12" t="s">
-        <v>729</v>
+        <v>831</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="12" t="s">
-        <v>730</v>
+        <v>832</v>
       </c>
     </row>
     <row r="108" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="12" t="s">
-        <v>731</v>
+        <v>833</v>
       </c>
     </row>
     <row r="109" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="21" t="s">
-        <v>732</v>
+        <v>834</v>
       </c>
     </row>
     <row r="110" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="12" t="s">
-        <v>733</v>
+        <v>835</v>
       </c>
     </row>
     <row r="111" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="12" t="s">
-        <v>734</v>
+        <v>836</v>
       </c>
     </row>
     <row r="112" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B112" s="21" t="s">
-        <v>735</v>
+        <v>837</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>736</v>
+        <v>838</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="12" t="s">
-        <v>737</v>
+        <v>839</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="12" t="s">
-        <v>738</v>
+        <v>840</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B115" s="21" t="s">
-        <v>739</v>
+        <v>841</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>740</v>
+        <v>842</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="12" t="s">
-        <v>741</v>
+        <v>843</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="12" t="s">
-        <v>742</v>
+        <v>844</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="12" t="s">
-        <v>743</v>
+        <v>845</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="12" t="s">
-        <v>744</v>
+        <v>846</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="12" t="s">
-        <v>745</v>
+        <v>847</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="12" t="s">
-        <v>746</v>
+        <v>848</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="12" t="s">
-        <v>747</v>
+        <v>849</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="12" t="s">
-        <v>748</v>
+        <v>850</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="12" t="s">
-        <v>749</v>
+        <v>851</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -17567,37 +17195,37 @@
         <v>90</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>750</v>
+        <v>852</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="21" t="s">
-        <v>751</v>
+        <v>853</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="21" t="s">
-        <v>752</v>
+        <v>854</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="12" t="s">
-        <v>753</v>
+        <v>855</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="21" t="s">
-        <v>754</v>
+        <v>856</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="21" t="s">
-        <v>755</v>
+        <v>857</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="21" t="s">
-        <v>756</v>
+        <v>858</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -17605,88 +17233,88 @@
         <v>96</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>757</v>
+        <v>859</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="12" t="s">
-        <v>758</v>
+        <v>860</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="12" t="s">
-        <v>759</v>
+        <v>861</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="21" t="s">
-        <v>760</v>
+        <v>862</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="12" t="s">
-        <v>761</v>
+        <v>863</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="21" t="s">
-        <v>762</v>
+        <v>864</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="12" t="s">
-        <v>763</v>
+        <v>865</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="12" t="s">
-        <v>764</v>
+        <v>866</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="12" t="s">
-        <v>765</v>
+        <v>867</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="21" t="s">
-        <v>766</v>
+        <v>868</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B142" s="21" t="s">
-        <v>767</v>
+        <v>869</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>768</v>
+        <v>870</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="12" t="s">
-        <v>769</v>
+        <v>871</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="12" t="s">
-        <v>770</v>
+        <v>872</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B145" s="21" t="s">
-        <v>771</v>
+        <v>873</v>
       </c>
       <c r="C145" s="15" t="s">
-        <v>772</v>
+        <v>874</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="21" t="s">
-        <v>773</v>
+        <v>875</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="21" t="s">
-        <v>774</v>
+        <v>876</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -17694,167 +17322,167 @@
         <v>109</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>775</v>
+        <v>877</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="12" t="s">
-        <v>776</v>
+        <v>878</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="12" t="s">
-        <v>777</v>
+        <v>879</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B151" s="12" t="s">
-        <v>778</v>
+        <v>880</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>779</v>
+        <v>881</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="12" t="s">
-        <v>780</v>
+        <v>882</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="21" t="s">
-        <v>781</v>
+        <v>883</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="12" t="s">
-        <v>782</v>
+        <v>884</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="12" t="s">
-        <v>783</v>
+        <v>885</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="12" t="s">
-        <v>784</v>
+        <v>886</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="12" t="s">
-        <v>785</v>
+        <v>887</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="12" t="s">
-        <v>786</v>
+        <v>888</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="12" t="s">
-        <v>787</v>
+        <v>889</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B160" s="12" t="s">
-        <v>788</v>
+        <v>890</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>789</v>
+        <v>891</v>
       </c>
     </row>
     <row r="161" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B161" s="12" t="s">
-        <v>790</v>
+        <v>892</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>791</v>
+        <v>893</v>
       </c>
     </row>
     <row r="162" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="12" t="s">
-        <v>792</v>
+        <v>894</v>
       </c>
     </row>
     <row r="163" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="21" t="s">
-        <v>793</v>
+        <v>895</v>
       </c>
     </row>
     <row r="164" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="12" t="s">
-        <v>794</v>
+        <v>896</v>
       </c>
     </row>
     <row r="165" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="12" t="s">
-        <v>795</v>
+        <v>897</v>
       </c>
     </row>
     <row r="166" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="12" t="s">
-        <v>796</v>
+        <v>898</v>
       </c>
     </row>
     <row r="167" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="12" t="s">
-        <v>797</v>
+        <v>899</v>
       </c>
     </row>
     <row r="168" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="21" t="s">
-        <v>798</v>
+        <v>900</v>
       </c>
     </row>
     <row r="169" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="12" t="s">
-        <v>799</v>
+        <v>901</v>
       </c>
     </row>
     <row r="170" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="12" t="s">
-        <v>800</v>
+        <v>902</v>
       </c>
     </row>
     <row r="171" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="12" t="s">
-        <v>801</v>
+        <v>903</v>
       </c>
     </row>
     <row r="172" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="12" t="s">
-        <v>802</v>
+        <v>904</v>
       </c>
     </row>
     <row r="173" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B173" s="12" t="s">
-        <v>803</v>
+        <v>905</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>804</v>
+        <v>906</v>
       </c>
     </row>
     <row r="174" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="12" t="s">
-        <v>805</v>
+        <v>907</v>
       </c>
     </row>
     <row r="175" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="12" t="s">
-        <v>806</v>
+        <v>908</v>
       </c>
     </row>
     <row r="176" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B176" s="12" t="s">
-        <v>807</v>
+        <v>909</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>808</v>
+        <v>910</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="12" t="s">
-        <v>809</v>
+        <v>911</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -17862,45 +17490,45 @@
         <v>116</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>810</v>
+        <v>912</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B179" s="15" t="s">
-        <v>811</v>
+        <v>913</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B180" s="15" t="s">
-        <v>812</v>
+        <v>914</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B181" s="15" t="s">
-        <v>813</v>
+        <v>915</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B182" s="15" t="s">
-        <v>814</v>
+        <v>916</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>815</v>
+        <v>917</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B183" s="15" t="s">
-        <v>816</v>
+        <v>918</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B184" s="15" t="s">
-        <v>817</v>
+        <v>919</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B185" s="15" t="s">
-        <v>818</v>
+        <v>920</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -17908,22 +17536,22 @@
         <v>122</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>819</v>
+        <v>921</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B187" s="15" t="s">
-        <v>820</v>
+        <v>922</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B188" s="15" t="s">
-        <v>821</v>
+        <v>923</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B189" s="15" t="s">
-        <v>822</v>
+        <v>924</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18864,59 +18492,59 @@
   <sheetData>
     <row r="1" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
-        <v>823</v>
+        <v>925</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
-        <v>824</v>
+        <v>926</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
-        <v>825</v>
+        <v>927</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15" t="s">
-        <v>826</v>
+        <v>928</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="15" t="s">
-        <v>827</v>
+        <v>929</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="15" t="s">
-        <v>828</v>
+        <v>930</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15" t="s">
-        <v>829</v>
+        <v>931</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
-        <v>830</v>
+        <v>932</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
-        <v>831</v>
+        <v>933</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15" t="s">
-        <v>832</v>
+        <v>934</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="16" t="s">
-        <v>833</v>
+        <v>935</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">

--- a/contribs_boolean.xlsx
+++ b/contribs_boolean.xlsx
@@ -529,7 +529,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="8.86328125" customWidth="1" style="17" min="1" max="1"/>
     <col width="22.1328125" customWidth="1" style="17" min="2" max="2"/>
@@ -1646,7 +1646,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="8.86328125" customWidth="1" style="17" min="1" max="1"/>
     <col width="21.86328125" customWidth="1" style="17" min="2" max="2"/>
@@ -2694,7 +2694,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="24" customWidth="1" style="17" min="1" max="1"/>
     <col width="14.59765625" customWidth="1" style="17" min="2" max="2"/>
@@ -5808,7 +5808,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="26.1328125" customWidth="1" style="17" min="1" max="1"/>
     <col width="18.3984375" customWidth="1" style="17" min="2" max="2"/>
@@ -10615,7 +10615,7 @@
       <selection activeCell="C195" sqref="C195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="25" customWidth="1" style="17" min="1" max="1"/>
     <col width="24" customWidth="1" style="17" min="2" max="2"/>
@@ -14862,7 +14862,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="25.265625" customWidth="1" style="17" min="1" max="1"/>
     <col width="198.265625" customWidth="1" style="17" min="2" max="2"/>
@@ -17480,7 +17480,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="24" customWidth="1" style="17" min="1" max="1"/>
     <col width="8.86328125" customWidth="1" style="17" min="2" max="26"/>
